--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -29050,169 +29050,199 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B885" t="inlineStr"/>
-      <c r="C885" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr"/>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H886" t="n">
-        <v>2</v>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H887" t="n">
-        <v>2</v>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F888" t="inlineStr"/>
-      <c r="G888" t="inlineStr"/>
-      <c r="H888" t="n">
-        <v>2</v>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
-      <c r="E889" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E889" t="inlineStr"/>
       <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr"/>
-      <c r="H889" t="n">
-        <v>2</v>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr"/>
-      <c r="H890" t="n">
-        <v>3</v>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -29222,107 +29252,99 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F891" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G891" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H891" t="n">
-        <v>3</v>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="inlineStr"/>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="892">
-      <c r="A892" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A892" t="inlineStr"/>
       <c r="B892" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H892" t="n">
-        <v>3</v>
+      <c r="G892" t="inlineStr"/>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="893">
-      <c r="A893" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A893" t="inlineStr"/>
       <c r="B893" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="n">
-        <v>3</v>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr"/>
       <c r="B894" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr"/>
       <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr"/>
-      <c r="H894" t="n">
-        <v>3</v>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="895">

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H900"/>
+  <dimension ref="A1:H929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26288,261 +26288,243 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr"/>
-      <c r="C798" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>BoE Credit Conditions Survey</t>
+        </is>
+      </c>
       <c r="D798" t="inlineStr"/>
       <c r="E798" t="inlineStr"/>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr"/>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>12-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D799" t="inlineStr"/>
       <c r="E799" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>3.187%</t>
         </is>
       </c>
       <c r="F799" t="inlineStr"/>
       <c r="G799" t="inlineStr"/>
-      <c r="H799" t="n">
-        <v>3</v>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>25-Year Obligacion Auction</t>
         </is>
       </c>
       <c r="D800" t="inlineStr"/>
-      <c r="E800" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H800" t="n">
-        <v>2</v>
+      <c r="E800" t="inlineStr"/>
+      <c r="F800" t="inlineStr"/>
+      <c r="G800" t="inlineStr"/>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>5-Year Bonos Auction</t>
         </is>
       </c>
       <c r="D801" t="inlineStr"/>
       <c r="E801" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F801" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H801" t="n">
-        <v>2</v>
+          <t>2.372%</t>
+        </is>
+      </c>
+      <c r="F801" t="inlineStr"/>
+      <c r="G801" t="inlineStr"/>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D802" t="inlineStr"/>
       <c r="E802" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>€6.8B</t>
+        </is>
+      </c>
+      <c r="F802" t="inlineStr"/>
       <c r="G802" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H802" t="n">
-        <v>3</v>
+          <t>€1.8B</t>
+        </is>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D803" t="inlineStr"/>
       <c r="E803" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F803" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H803" t="n">
-        <v>3</v>
+          <t>$92.59B</t>
+        </is>
+      </c>
+      <c r="F803" t="inlineStr"/>
+      <c r="G803" t="inlineStr"/>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D804" t="inlineStr"/>
       <c r="E804" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F804" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H804" t="n">
-        <v>1</v>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>ECB Monetary Policy Meeting Accounts</t>
         </is>
       </c>
       <c r="D805" t="inlineStr"/>
-      <c r="E805" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E805" t="inlineStr"/>
       <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H805" t="n">
-        <v>1</v>
+      <c r="G805" t="inlineStr"/>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -26552,777 +26534,817 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D806" t="inlineStr"/>
       <c r="E806" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F806" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H806" t="n">
-        <v>2</v>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D807" t="inlineStr"/>
       <c r="E807" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>£-18.0B</t>
+          <t>250k</t>
         </is>
       </c>
       <c r="G807" t="inlineStr">
         <is>
-          <t>£-17.0B</t>
-        </is>
-      </c>
-      <c r="H807" t="n">
-        <v>2</v>
+          <t>240.0K</t>
+        </is>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D808" t="inlineStr"/>
       <c r="E808" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
-        </is>
-      </c>
-      <c r="F808" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>£-6.8B</t>
-        </is>
-      </c>
-      <c r="H808" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D809" t="inlineStr"/>
       <c r="E809" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F809" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr"/>
       <c r="G809" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H809" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D810" t="inlineStr"/>
       <c r="E810" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F810" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr"/>
       <c r="G810" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H810" t="n">
-        <v>2</v>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D811" t="inlineStr"/>
       <c r="E811" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
-        </is>
-      </c>
-      <c r="F811" t="inlineStr"/>
+          <t>201K</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>210K</t>
+        </is>
+      </c>
       <c r="G811" t="inlineStr">
         <is>
-          <t>£-3.9B</t>
-        </is>
-      </c>
-      <c r="H811" t="n">
-        <v>3</v>
+          <t>209.0K</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D812" t="inlineStr"/>
       <c r="E812" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F812" t="inlineStr"/>
+          <t>-16.4</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H812" t="n">
-        <v>3</v>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D813" t="inlineStr"/>
       <c r="E813" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G813" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H813" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D814" t="inlineStr"/>
       <c r="E814" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F814" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>1867K</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr"/>
       <c r="G814" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="H814" t="n">
-        <v>3</v>
+          <t>1870.0K</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D815" t="inlineStr"/>
       <c r="E815" t="inlineStr">
         <is>
-          <t>€5.153B</t>
-        </is>
-      </c>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>€4.5B</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F815" t="inlineStr"/>
       <c r="G815" t="inlineStr">
         <is>
-          <t>€3.2B</t>
-        </is>
-      </c>
-      <c r="H815" t="n">
-        <v>2</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D816" t="inlineStr"/>
       <c r="E816" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F816" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F816" t="inlineStr"/>
       <c r="G816" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H816" t="n">
-        <v>2</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D817" t="inlineStr"/>
       <c r="E817" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F817" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+          <t>213K</t>
+        </is>
+      </c>
+      <c r="F817" t="inlineStr"/>
       <c r="G817" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H817" t="n">
-        <v>2</v>
+          <t>215.0K</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D818" t="inlineStr"/>
       <c r="E818" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F818" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H818" t="n">
-        <v>3</v>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="F818" t="inlineStr"/>
+      <c r="G818" t="inlineStr"/>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D819" t="inlineStr"/>
       <c r="E819" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F819" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H819" t="n">
-        <v>3</v>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F819" t="inlineStr"/>
+      <c r="G819" t="inlineStr"/>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>BoE Credit Conditions Survey</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D820" t="inlineStr"/>
-      <c r="E820" t="inlineStr"/>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="n">
-        <v>3</v>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>12-Year Obligacion Auction</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D821" t="inlineStr"/>
       <c r="E821" t="inlineStr">
         <is>
-          <t>3.187%</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
-      <c r="H821" t="n">
-        <v>3</v>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>25-Year Obligacion Auction</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D822" t="inlineStr"/>
-      <c r="E822" t="inlineStr"/>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
       <c r="F822" t="inlineStr"/>
       <c r="G822" t="inlineStr"/>
-      <c r="H822" t="n">
-        <v>3</v>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>5-Year Bonos Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D823" t="inlineStr"/>
       <c r="E823" t="inlineStr">
         <is>
-          <t>2.372%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F823" t="inlineStr"/>
-      <c r="G823" t="inlineStr"/>
-      <c r="H823" t="n">
-        <v>3</v>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D824" t="inlineStr"/>
       <c r="E824" t="inlineStr">
         <is>
-          <t>€6.8B</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F824" t="inlineStr"/>
       <c r="G824" t="inlineStr">
         <is>
-          <t>€1.8B</t>
-        </is>
-      </c>
-      <c r="H824" t="n">
-        <v>2</v>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D825" t="inlineStr"/>
       <c r="E825" t="inlineStr">
         <is>
-          <t>$92.59B</t>
-        </is>
-      </c>
-      <c r="F825" t="inlineStr"/>
-      <c r="G825" t="inlineStr"/>
-      <c r="H825" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D826" t="inlineStr"/>
       <c r="E826" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F826" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G826" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H826" t="n">
-        <v>3</v>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>ECB Monetary Policy Meeting Accounts</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D827" t="inlineStr"/>
-      <c r="E827" t="inlineStr"/>
-      <c r="F827" t="inlineStr"/>
-      <c r="G827" t="inlineStr"/>
-      <c r="H827" t="n">
-        <v>2</v>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D828" t="inlineStr"/>
       <c r="E828" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="F828" t="inlineStr"/>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H828" t="n">
-        <v>3</v>
+      <c r="G828" t="inlineStr"/>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D829" t="inlineStr"/>
       <c r="E829" t="inlineStr">
         <is>
-          <t>262.4K</t>
-        </is>
-      </c>
-      <c r="F829" t="inlineStr">
-        <is>
-          <t>250k</t>
-        </is>
-      </c>
-      <c r="G829" t="inlineStr">
-        <is>
-          <t>240.0K</t>
-        </is>
-      </c>
-      <c r="H829" t="n">
-        <v>2</v>
+          <t>4.245%</t>
+        </is>
+      </c>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="inlineStr"/>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -27332,33 +27354,27 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D830" t="inlineStr"/>
       <c r="E830" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F830" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H830" t="n">
-        <v>1</v>
+          <t>4.240%</t>
+        </is>
+      </c>
+      <c r="F830" t="inlineStr"/>
+      <c r="G830" t="inlineStr"/>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -27368,29 +27384,27 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D831" t="inlineStr"/>
       <c r="E831" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H831" t="n">
-        <v>2</v>
+      <c r="G831" t="inlineStr"/>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -27400,65 +27414,53 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D832" t="inlineStr"/>
       <c r="E832" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="F832" t="inlineStr"/>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H832" t="n">
-        <v>2</v>
+      <c r="G832" t="inlineStr"/>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>BoC Gravelle Speech</t>
         </is>
       </c>
       <c r="D833" t="inlineStr"/>
-      <c r="E833" t="inlineStr">
-        <is>
-          <t>201K</t>
-        </is>
-      </c>
-      <c r="F833" t="inlineStr">
-        <is>
-          <t>210K</t>
-        </is>
-      </c>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>209.0K</t>
-        </is>
-      </c>
-      <c r="H833" t="n">
-        <v>2</v>
+      <c r="E833" t="inlineStr"/>
+      <c r="F833" t="inlineStr"/>
+      <c r="G833" t="inlineStr"/>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -27468,1187 +27470,1263 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D834" t="inlineStr"/>
       <c r="E834" t="inlineStr">
         <is>
-          <t>-16.4</t>
-        </is>
-      </c>
-      <c r="F834" t="inlineStr">
-        <is>
-          <t>-8.5</t>
-        </is>
-      </c>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="H834" t="n">
-        <v>2</v>
+          <t>$6.85T</t>
+        </is>
+      </c>
+      <c r="F834" t="inlineStr"/>
+      <c r="G834" t="inlineStr"/>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D835" t="inlineStr"/>
       <c r="E835" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F835" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G835" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H835" t="n">
-        <v>2</v>
+          <t>¥-331.8B</t>
+        </is>
+      </c>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="inlineStr"/>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D836" t="inlineStr"/>
       <c r="E836" t="inlineStr">
         <is>
-          <t>1867K</t>
+          <t>¥-74B</t>
         </is>
       </c>
       <c r="F836" t="inlineStr"/>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="H836" t="n">
-        <v>3</v>
+      <c r="G836" t="inlineStr"/>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D837" t="inlineStr"/>
       <c r="E837" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="F837" t="inlineStr"/>
       <c r="G837" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H837" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D838" t="inlineStr"/>
       <c r="E838" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F838" t="inlineStr"/>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G838" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H838" t="n">
-        <v>3</v>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D839" t="inlineStr"/>
       <c r="E839" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F839" t="inlineStr"/>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="H839" t="n">
-        <v>3</v>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D840" t="inlineStr"/>
       <c r="E840" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>-5.7%</t>
         </is>
       </c>
       <c r="F840" t="inlineStr"/>
-      <c r="G840" t="inlineStr"/>
-      <c r="H840" t="n">
-        <v>3</v>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D841" t="inlineStr"/>
       <c r="E841" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F841" t="inlineStr"/>
-      <c r="G841" t="inlineStr"/>
-      <c r="H841" t="n">
-        <v>3</v>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D842" t="inlineStr"/>
       <c r="E842" t="inlineStr">
         <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr"/>
-      <c r="H842" t="n">
-        <v>3</v>
+          <t>4.6%</t>
+        </is>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D843" t="inlineStr"/>
       <c r="E843" t="inlineStr">
         <is>
-          <t>-4.3</t>
-        </is>
-      </c>
-      <c r="F843" t="inlineStr"/>
-      <c r="G843" t="inlineStr"/>
-      <c r="H843" t="n">
-        <v>3</v>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D844" t="inlineStr"/>
       <c r="E844" t="inlineStr">
         <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="F844" t="inlineStr"/>
-      <c r="G844" t="inlineStr"/>
-      <c r="H844" t="n">
-        <v>3</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F844" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="G844" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D845" t="inlineStr"/>
       <c r="E845" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F845" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G845" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H845" t="n">
-        <v>3</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D846" t="inlineStr"/>
       <c r="E846" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F846" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="G846" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H846" t="n">
-        <v>3</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D847" t="inlineStr"/>
       <c r="E847" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F847" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+          <t>75.1%</t>
+        </is>
+      </c>
+      <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H847" t="n">
-        <v>2</v>
+          <t>75.3%</t>
+        </is>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D848" t="inlineStr"/>
       <c r="E848" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H848" t="n">
-        <v>2</v>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D849" t="inlineStr"/>
       <c r="E849" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F849" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G849" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H849" t="n">
-        <v>3</v>
+          <t>0.2402%</t>
+        </is>
+      </c>
+      <c r="F849" t="inlineStr"/>
+      <c r="G849" t="inlineStr"/>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C850" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr"/>
+      <c r="C850" t="inlineStr"/>
       <c r="D850" t="inlineStr"/>
-      <c r="E850" t="inlineStr">
-        <is>
-          <t>-40Bcf</t>
-        </is>
-      </c>
+      <c r="E850" t="inlineStr"/>
       <c r="F850" t="inlineStr"/>
       <c r="G850" t="inlineStr"/>
-      <c r="H850" t="n">
-        <v>3</v>
-      </c>
+      <c r="H850" t="inlineStr"/>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D851" t="inlineStr"/>
       <c r="E851" t="inlineStr">
         <is>
-          <t>4.245%</t>
-        </is>
-      </c>
-      <c r="F851" t="inlineStr"/>
-      <c r="G851" t="inlineStr"/>
-      <c r="H851" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr">
         <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="F852" t="inlineStr"/>
-      <c r="G852" t="inlineStr"/>
-      <c r="H852" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G852" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D853" t="inlineStr"/>
       <c r="E853" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F853" t="inlineStr"/>
-      <c r="G853" t="inlineStr"/>
-      <c r="H853" t="n">
-        <v>3</v>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D854" t="inlineStr"/>
       <c r="E854" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F854" t="inlineStr"/>
-      <c r="G854" t="inlineStr"/>
-      <c r="H854" t="n">
-        <v>3</v>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>BoC Gravelle Speech</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr"/>
-      <c r="H855" t="n">
-        <v>2</v>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>€33.0B</t>
+        </is>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>€33.5B</t>
         </is>
       </c>
       <c r="F856" t="inlineStr"/>
       <c r="G856" t="inlineStr"/>
-      <c r="H856" t="n">
-        <v>3</v>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D857" t="inlineStr"/>
       <c r="E857" t="inlineStr">
         <is>
-          <t>¥-331.8B</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr"/>
-      <c r="H857" t="n">
-        <v>3</v>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>€-4.2B</t>
+        </is>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D858" t="inlineStr"/>
       <c r="E858" t="inlineStr">
         <is>
-          <t>¥-74B</t>
-        </is>
-      </c>
-      <c r="F858" t="inlineStr"/>
-      <c r="G858" t="inlineStr"/>
-      <c r="H858" t="n">
-        <v>3</v>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G858" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D859" t="inlineStr"/>
       <c r="E859" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F859" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H859" t="n">
-        <v>3</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D860" t="inlineStr"/>
       <c r="E860" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
         <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H860" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D861" t="inlineStr"/>
       <c r="E861" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F861" t="inlineStr"/>
-      <c r="G861" t="inlineStr"/>
-      <c r="H861" t="n">
-        <v>3</v>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D862" t="inlineStr"/>
-      <c r="E862" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E862" t="inlineStr"/>
       <c r="F862" t="inlineStr"/>
-      <c r="G862" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
-      <c r="H862" t="n">
-        <v>2</v>
+      <c r="G862" t="inlineStr"/>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D863" t="inlineStr"/>
       <c r="E863" t="inlineStr">
         <is>
-          <t>$6.52B</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F863" t="inlineStr"/>
       <c r="G863" t="inlineStr">
         <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
-      <c r="H863" t="n">
-        <v>3</v>
+          <t>€2900.0M</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>ECB Cipollone Speech</t>
         </is>
       </c>
       <c r="D864" t="inlineStr"/>
-      <c r="E864" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F864" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G864" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H864" t="n">
-        <v>1</v>
+      <c r="E864" t="inlineStr"/>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="inlineStr"/>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr">
         <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="F865" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G865" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
-      <c r="H865" t="n">
-        <v>1</v>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="inlineStr"/>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F866" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G866" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H866" t="n">
-        <v>1</v>
+          <t>11.5%</t>
+        </is>
+      </c>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="inlineStr"/>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D867" t="inlineStr"/>
       <c r="E867" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F867" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G867" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H867" t="n">
-        <v>2</v>
+          <t>$634.59B</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr"/>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F868" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="G868" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H868" t="n">
-        <v>2</v>
+          <t>C$21.55B</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="inlineStr"/>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D869" t="inlineStr"/>
       <c r="E869" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F869" t="inlineStr"/>
-      <c r="G869" t="inlineStr">
-        <is>
-          <t>75.3%</t>
-        </is>
-      </c>
-      <c r="H869" t="n">
-        <v>3</v>
+      <c r="G869" t="inlineStr"/>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
       <c r="E870" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>1.46M</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>5.00%</t>
-        </is>
-      </c>
-      <c r="H870" t="n">
-        <v>3</v>
+          <t>1.48M</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D871" t="inlineStr"/>
       <c r="E871" t="inlineStr">
         <is>
-          <t>0.2402%</t>
-        </is>
-      </c>
-      <c r="F871" t="inlineStr"/>
-      <c r="G871" t="inlineStr"/>
-      <c r="H871" t="n">
-        <v>3</v>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>1.32M</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="872">
@@ -28679,8 +28757,10 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H872" t="n">
-        <v>2</v>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="873">
@@ -28711,8 +28791,10 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H873" t="n">
-        <v>2</v>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="874">
@@ -28747,8 +28829,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H874" t="n">
-        <v>2</v>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="875">
@@ -28783,8 +28867,10 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H875" t="n">
-        <v>3</v>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="876">
@@ -28815,8 +28901,10 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H876" t="n">
-        <v>3</v>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="877">
@@ -28847,8 +28935,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H877" t="n">
-        <v>3</v>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="878">
@@ -28879,8 +28969,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H878" t="n">
-        <v>3</v>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="879">
@@ -28907,8 +28999,10 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="n">
-        <v>3</v>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="880">
@@ -28935,8 +29029,10 @@
       </c>
       <c r="F880" t="inlineStr"/>
       <c r="G880" t="inlineStr"/>
-      <c r="H880" t="n">
-        <v>3</v>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="881">
@@ -28963,8 +29059,10 @@
       </c>
       <c r="F881" t="inlineStr"/>
       <c r="G881" t="inlineStr"/>
-      <c r="H881" t="n">
-        <v>2</v>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="882">
@@ -28991,8 +29089,10 @@
       </c>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="n">
-        <v>3</v>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="883">
@@ -29019,8 +29119,10 @@
       </c>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
-      <c r="H883" t="n">
-        <v>3</v>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="884">
@@ -29043,196 +29145,178 @@
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="n">
-        <v>3</v>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B885" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C885" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr"/>
+      <c r="C885" t="inlineStr"/>
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F888" t="inlineStr"/>
-      <c r="G888" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G888" t="inlineStr"/>
       <c r="H888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
-      <c r="E889" t="inlineStr"/>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G889" t="inlineStr"/>
       <c r="H889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G890" t="inlineStr"/>
       <c r="H890" t="inlineStr">
         <is>
           <t>3</t>
@@ -29242,7 +29326,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -29252,17 +29336,25 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>2.550%</t>
-        </is>
-      </c>
-      <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H891" t="inlineStr">
         <is>
           <t>3</t>
@@ -29270,25 +29362,33 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" t="inlineStr"/>
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr"/>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H892" t="inlineStr">
         <is>
           <t>3</t>
@@ -29296,21 +29396,25 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" t="inlineStr"/>
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F893" t="inlineStr"/>
@@ -29325,22 +29429,18 @@
       <c r="A894" t="inlineStr"/>
       <c r="B894" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr"/>
       <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G894" t="inlineStr"/>
       <c r="H894" t="inlineStr">
         <is>
           <t>3</t>
@@ -29348,81 +29448,81 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" t="inlineStr"/>
-      <c r="B895" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C895" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr"/>
+      <c r="C895" t="inlineStr"/>
       <c r="D895" t="inlineStr"/>
-      <c r="E895" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
+      <c r="E895" t="inlineStr"/>
       <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G895" t="inlineStr"/>
+      <c r="H895" t="inlineStr"/>
     </row>
     <row r="896">
-      <c r="A896" t="inlineStr"/>
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="897">
-      <c r="A897" t="inlineStr"/>
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
-      <c r="E897" t="inlineStr"/>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr"/>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H897" t="inlineStr">
         <is>
           <t>3</t>
@@ -29432,35 +29532,59 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B898" t="inlineStr"/>
-      <c r="C898" t="inlineStr"/>
+          <t>04:15 AM</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Construction Output YoYNOV</t>
+        </is>
+      </c>
       <c r="D898" t="inlineStr"/>
-      <c r="E898" t="inlineStr"/>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr"/>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr"/>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
@@ -29472,17 +29596,17 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
@@ -29495,6 +29619,852 @@
         </is>
       </c>
     </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>9-Month Bubill Auction</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr"/>
+      <c r="E901" t="inlineStr"/>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="inlineStr"/>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Balance of TradeNOV</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr"/>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr"/>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Current AccountQ4</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr"/>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr"/>
+      <c r="E904" t="inlineStr"/>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="inlineStr"/>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr"/>
+      <c r="E905" t="inlineStr"/>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="inlineStr"/>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr"/>
+      <c r="E906" t="inlineStr"/>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="inlineStr"/>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr"/>
+      <c r="E907" t="inlineStr"/>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="inlineStr"/>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr"/>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr"/>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr"/>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>$1234M</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr"/>
+      <c r="E911" t="inlineStr"/>
+      <c r="F911" t="inlineStr"/>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr"/>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr"/>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>10:35 PM</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>40-Year JGB Auction</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr"/>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="inlineStr"/>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr"/>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>10-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr"/>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>2.665%</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="inlineStr"/>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr"/>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>FDI (YTD) YoYDEC</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr"/>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>-27.9%</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr"/>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceDEC</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr"/>
+      <c r="E916" t="inlineStr"/>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr"/>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr"/>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr"/>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Central Government DebtDEC</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr"/>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>TRY9.005T</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>TRY 9.0T</t>
+        </is>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr"/>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>ECOFIN Meeting</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr"/>
+      <c r="E919" t="inlineStr"/>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr"/>
+      <c r="C920" t="inlineStr"/>
+      <c r="D920" t="inlineStr"/>
+      <c r="E920" t="inlineStr"/>
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="inlineStr"/>
+      <c r="H920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>MAS 12-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr"/>
+      <c r="E921" t="inlineStr"/>
+      <c r="F921" t="inlineStr"/>
+      <c r="G921" t="inlineStr"/>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>MAS 4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr"/>
+      <c r="E922" t="inlineStr"/>
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="inlineStr"/>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>New Car Registrations YoYDEC</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr"/>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr"/>
+      <c r="G923" t="inlineStr"/>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Unemployment RateNOV</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr"/>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr"/>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr"/>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr"/>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Employment ChangeNOV</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr"/>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
+      <c r="F926" t="inlineStr"/>
+      <c r="G926" t="inlineStr"/>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr"/>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Claimant Count ChangeDEC</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr"/>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>HMRC Payrolls ChangeDEC</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr"/>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H929"/>
+  <dimension ref="A1:H907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26305,10 +26305,8 @@
       <c r="E798" t="inlineStr"/>
       <c r="F798" t="inlineStr"/>
       <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="799">
@@ -26335,10 +26333,8 @@
       </c>
       <c r="F799" t="inlineStr"/>
       <c r="G799" t="inlineStr"/>
-      <c r="H799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="800">
@@ -26361,10 +26357,8 @@
       <c r="E800" t="inlineStr"/>
       <c r="F800" t="inlineStr"/>
       <c r="G800" t="inlineStr"/>
-      <c r="H800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="801">
@@ -26391,10 +26385,8 @@
       </c>
       <c r="F801" t="inlineStr"/>
       <c r="G801" t="inlineStr"/>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="802">
@@ -26425,10 +26417,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="803">
@@ -26455,10 +26445,8 @@
       </c>
       <c r="F803" t="inlineStr"/>
       <c r="G803" t="inlineStr"/>
-      <c r="H803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="804">
@@ -26489,10 +26477,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="805">
@@ -26515,10 +26501,8 @@
       <c r="E805" t="inlineStr"/>
       <c r="F805" t="inlineStr"/>
       <c r="G805" t="inlineStr"/>
-      <c r="H805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="806">
@@ -26549,10 +26533,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="807">
@@ -26587,10 +26569,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -26625,10 +26605,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H808" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="809">
@@ -26659,10 +26637,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -26693,10 +26669,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -26731,10 +26705,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="812">
@@ -26769,10 +26741,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="813">
@@ -26807,10 +26777,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="814">
@@ -26841,10 +26809,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="815">
@@ -26875,10 +26841,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -26909,10 +26873,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="817">
@@ -26943,10 +26905,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="818">
@@ -26973,10 +26933,8 @@
       </c>
       <c r="F818" t="inlineStr"/>
       <c r="G818" t="inlineStr"/>
-      <c r="H818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -27003,10 +26961,8 @@
       </c>
       <c r="F819" t="inlineStr"/>
       <c r="G819" t="inlineStr"/>
-      <c r="H819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="820">
@@ -27033,10 +26989,8 @@
       </c>
       <c r="F820" t="inlineStr"/>
       <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -27063,10 +27017,8 @@
       </c>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
-      <c r="H821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -27093,10 +27045,8 @@
       </c>
       <c r="F822" t="inlineStr"/>
       <c r="G822" t="inlineStr"/>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="823">
@@ -27127,10 +27077,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -27161,10 +27109,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="825">
@@ -27199,10 +27145,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="826">
@@ -27237,10 +27181,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="827">
@@ -27275,10 +27217,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -27305,10 +27245,8 @@
       </c>
       <c r="F828" t="inlineStr"/>
       <c r="G828" t="inlineStr"/>
-      <c r="H828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="829">
@@ -27335,10 +27273,8 @@
       </c>
       <c r="F829" t="inlineStr"/>
       <c r="G829" t="inlineStr"/>
-      <c r="H829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="830">
@@ -27365,10 +27301,8 @@
       </c>
       <c r="F830" t="inlineStr"/>
       <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -27395,10 +27329,8 @@
       </c>
       <c r="F831" t="inlineStr"/>
       <c r="G831" t="inlineStr"/>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -27425,10 +27357,8 @@
       </c>
       <c r="F832" t="inlineStr"/>
       <c r="G832" t="inlineStr"/>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="833">
@@ -27451,10 +27381,8 @@
       <c r="E833" t="inlineStr"/>
       <c r="F833" t="inlineStr"/>
       <c r="G833" t="inlineStr"/>
-      <c r="H833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -27481,10 +27409,8 @@
       </c>
       <c r="F834" t="inlineStr"/>
       <c r="G834" t="inlineStr"/>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -27511,10 +27437,8 @@
       </c>
       <c r="F835" t="inlineStr"/>
       <c r="G835" t="inlineStr"/>
-      <c r="H835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="836">
@@ -27541,10 +27465,8 @@
       </c>
       <c r="F836" t="inlineStr"/>
       <c r="G836" t="inlineStr"/>
-      <c r="H836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -27575,10 +27497,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="838">
@@ -27613,10 +27533,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -27643,10 +27561,8 @@
       </c>
       <c r="F839" t="inlineStr"/>
       <c r="G839" t="inlineStr"/>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -27677,10 +27593,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -27711,10 +27625,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="842">
@@ -27749,10 +27661,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H842" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="843">
@@ -27787,10 +27697,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H843" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H843" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -27825,10 +27733,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H844" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="845">
@@ -27863,10 +27769,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -27901,10 +27805,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="847">
@@ -27935,10 +27837,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -27973,10 +27873,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -28003,94 +27901,108 @@
       </c>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr"/>
-      <c r="C850" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D850" t="inlineStr"/>
-      <c r="E850" t="inlineStr"/>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F850" t="inlineStr"/>
-      <c r="G850" t="inlineStr"/>
-      <c r="H850" t="inlineStr"/>
+      <c r="G850" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D851" t="inlineStr"/>
       <c r="E851" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F851" t="inlineStr"/>
       <c r="G851" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G852" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H852" t="inlineStr">
@@ -28102,29 +28014,33 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D853" t="inlineStr"/>
       <c r="E853" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F853" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G853" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H853" t="inlineStr">
@@ -28136,29 +28052,29 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D854" t="inlineStr"/>
       <c r="E854" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F854" t="inlineStr"/>
       <c r="G854" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H854" t="inlineStr">
@@ -28170,29 +28086,29 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D855" t="inlineStr"/>
       <c r="E855" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F855" t="inlineStr"/>
       <c r="G855" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H855" t="inlineStr">
@@ -28204,27 +28120,31 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr"/>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H856" t="inlineStr">
         <is>
           <t>3</t>
@@ -28234,145 +28154,117 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D857" t="inlineStr"/>
       <c r="E857" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G857" t="inlineStr"/>
       <c r="H857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D858" t="inlineStr"/>
       <c r="E858" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F858" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G858" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F858" t="inlineStr"/>
+      <c r="G858" t="inlineStr"/>
       <c r="H858" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D859" t="inlineStr"/>
       <c r="E859" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F859" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G859" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="inlineStr"/>
       <c r="H859" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D860" t="inlineStr"/>
       <c r="E860" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F860" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G860" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="inlineStr"/>
       <c r="H860" t="inlineStr">
         <is>
           <t>3</t>
@@ -28382,35 +28274,27 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D861" t="inlineStr"/>
       <c r="E861" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F861" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G861" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="inlineStr"/>
       <c r="H861" t="inlineStr">
         <is>
           <t>3</t>
@@ -28418,23 +28302,23 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A862" t="inlineStr"/>
       <c r="B862" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D862" t="inlineStr"/>
-      <c r="E862" t="inlineStr"/>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F862" t="inlineStr"/>
       <c r="G862" t="inlineStr"/>
       <c r="H862" t="inlineStr">
@@ -28446,173 +28330,165 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B863" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C863" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr"/>
+      <c r="C863" t="inlineStr"/>
       <c r="D863" t="inlineStr"/>
-      <c r="E863" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E863" t="inlineStr"/>
       <c r="F863" t="inlineStr"/>
-      <c r="G863" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G863" t="inlineStr"/>
+      <c r="H863" t="inlineStr"/>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D864" t="inlineStr"/>
-      <c r="E864" t="inlineStr"/>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F864" t="inlineStr"/>
-      <c r="G864" t="inlineStr"/>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F865" t="inlineStr"/>
-      <c r="G865" t="inlineStr"/>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F866" t="inlineStr"/>
       <c r="G866" t="inlineStr"/>
       <c r="H866" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D867" t="inlineStr"/>
       <c r="E867" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F867" t="inlineStr"/>
       <c r="G867" t="inlineStr"/>
       <c r="H867" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F868" t="inlineStr"/>
@@ -28626,27 +28502,35 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D869" t="inlineStr"/>
       <c r="E869" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F869" t="inlineStr"/>
-      <c r="G869" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H869" t="inlineStr">
         <is>
           <t>3</t>
@@ -28656,177 +28540,129 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
       <c r="E870" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F870" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D871" t="inlineStr"/>
       <c r="E871" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F871" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G871" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="inlineStr"/>
       <c r="H871" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="872">
-      <c r="A872" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A872" t="inlineStr"/>
       <c r="B872" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
-      <c r="E872" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E872" t="inlineStr"/>
       <c r="F872" t="inlineStr"/>
-      <c r="G872" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G872" t="inlineStr"/>
       <c r="H872" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B873" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C873" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr"/>
+      <c r="C873" t="inlineStr"/>
       <c r="D873" t="inlineStr"/>
-      <c r="E873" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E873" t="inlineStr"/>
       <c r="F873" t="inlineStr"/>
-      <c r="G873" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G873" t="inlineStr"/>
+      <c r="H873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F874" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr"/>
       <c r="G874" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H874" t="inlineStr">
@@ -28838,33 +28674,29 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
       <c r="E875" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F875" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F875" t="inlineStr"/>
       <c r="G875" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H875" t="inlineStr">
@@ -28876,29 +28708,29 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D876" t="inlineStr"/>
       <c r="E876" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H876" t="inlineStr">
@@ -28910,17 +28742,17 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
@@ -28930,11 +28762,7 @@
         </is>
       </c>
       <c r="F877" t="inlineStr"/>
-      <c r="G877" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G877" t="inlineStr"/>
       <c r="H877" t="inlineStr">
         <is>
           <t>3</t>
@@ -28944,31 +28772,23 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D878" t="inlineStr"/>
-      <c r="E878" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E878" t="inlineStr"/>
       <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G878" t="inlineStr"/>
       <c r="H878" t="inlineStr">
         <is>
           <t>3</t>
@@ -28978,25 +28798,21 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
-      <c r="E879" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E879" t="inlineStr"/>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
       <c r="H879" t="inlineStr">
@@ -29008,23 +28824,23 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F880" t="inlineStr"/>
@@ -29038,55 +28854,55 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F881" t="inlineStr"/>
-      <c r="G881" t="inlineStr"/>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
-      <c r="E882" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
       <c r="H882" t="inlineStr">
@@ -29098,25 +28914,21 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E883" t="inlineStr"/>
       <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr"/>
       <c r="H883" t="inlineStr">
@@ -29126,23 +28938,23 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" t="inlineStr"/>
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
-      <c r="E884" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E884" t="inlineStr"/>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
       <c r="H884" t="inlineStr">
@@ -29154,169 +28966,189 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B885" t="inlineStr"/>
-      <c r="C885" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr"/>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F888" t="inlineStr"/>
-      <c r="G888" t="inlineStr"/>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D889" t="inlineStr"/>
-      <c r="E889" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E889" t="inlineStr"/>
       <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr"/>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr"/>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H890" t="inlineStr">
         <is>
           <t>3</t>
@@ -29326,7 +29158,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -29336,25 +29168,17 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F891" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G891" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="inlineStr"/>
       <c r="H891" t="inlineStr">
         <is>
           <t>3</t>
@@ -29362,33 +29186,25 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A892" t="inlineStr"/>
       <c r="B892" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G892" t="inlineStr"/>
       <c r="H892" t="inlineStr">
         <is>
           <t>3</t>
@@ -29396,25 +29212,21 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A893" t="inlineStr"/>
       <c r="B893" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F893" t="inlineStr"/>
@@ -29429,18 +29241,22 @@
       <c r="A894" t="inlineStr"/>
       <c r="B894" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr"/>
       <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr"/>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H894" t="inlineStr">
         <is>
           <t>3</t>
@@ -29448,81 +29264,81 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B895" t="inlineStr"/>
-      <c r="C895" t="inlineStr"/>
+      <c r="A895" t="inlineStr"/>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D895" t="inlineStr"/>
-      <c r="E895" t="inlineStr"/>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr"/>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="896">
-      <c r="A896" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A896" t="inlineStr"/>
       <c r="B896" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="897">
-      <c r="A897" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A897" t="inlineStr"/>
       <c r="B897" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
-      <c r="E897" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E897" t="inlineStr"/>
       <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G897" t="inlineStr"/>
       <c r="H897" t="inlineStr">
         <is>
           <t>3</t>
@@ -29532,59 +29348,35 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B898" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C898" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr"/>
+      <c r="C898" t="inlineStr"/>
       <c r="D898" t="inlineStr"/>
-      <c r="E898" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E898" t="inlineStr"/>
       <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G898" t="inlineStr"/>
+      <c r="H898" t="inlineStr"/>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E899" t="inlineStr"/>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
@@ -29596,17 +29388,17 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
@@ -29622,139 +29414,159 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
-      <c r="E901" t="inlineStr"/>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
       <c r="H901" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr"/>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr"/>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F905" t="inlineStr"/>
-      <c r="G905" t="inlineStr"/>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H905" t="inlineStr">
         <is>
           <t>3</t>
@@ -29764,23 +29576,31 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr"/>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr"/>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H906" t="inlineStr">
         <is>
           <t>3</t>
@@ -29790,676 +29610,32 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
-      <c r="E907" t="inlineStr"/>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B908" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C908" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D908" t="inlineStr"/>
-      <c r="E908" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B909" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C909" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D909" t="inlineStr"/>
-      <c r="E909" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B910" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C910" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D910" t="inlineStr"/>
-      <c r="E910" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F910" t="inlineStr"/>
-      <c r="G910" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B911" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C911" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr"/>
-      <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B912" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C912" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B913" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C913" t="inlineStr">
-        <is>
-          <t>40-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D913" t="inlineStr"/>
-      <c r="E913" t="inlineStr">
-        <is>
-          <t>2.550%</t>
-        </is>
-      </c>
-      <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="inlineStr"/>
-      <c r="B914" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C914" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" t="inlineStr"/>
-      <c r="B915" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C915" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D915" t="inlineStr"/>
-      <c r="E915" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr"/>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" t="inlineStr"/>
-      <c r="B916" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C916" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D916" t="inlineStr"/>
-      <c r="E916" t="inlineStr"/>
-      <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" t="inlineStr"/>
-      <c r="B917" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C917" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D917" t="inlineStr"/>
-      <c r="E917" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="inlineStr"/>
-      <c r="B918" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C918" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D918" t="inlineStr"/>
-      <c r="E918" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="inlineStr"/>
-      <c r="B919" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C919" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr"/>
-      <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B920" t="inlineStr"/>
-      <c r="C920" t="inlineStr"/>
-      <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr"/>
-      <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr"/>
-      <c r="H920" t="inlineStr"/>
-    </row>
-    <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B921" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C921" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D921" t="inlineStr"/>
-      <c r="E921" t="inlineStr"/>
-      <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B922" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C922" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr"/>
-      <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C923" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYDEC</t>
-        </is>
-      </c>
-      <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B924" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C924" t="inlineStr">
-        <is>
-          <t>Unemployment RateNOV</t>
-        </is>
-      </c>
-      <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B925" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C925" t="inlineStr">
-        <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B926" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C926" t="inlineStr">
-        <is>
-          <t>Employment ChangeNOV</t>
-        </is>
-      </c>
-      <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
-      <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B927" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C927" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B928" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C928" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D928" t="inlineStr"/>
-      <c r="E928" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B929" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D929" t="inlineStr"/>
-      <c r="E929" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H929" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H907"/>
+  <dimension ref="A1:H885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27933,10 +27933,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -27967,10 +27965,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -28005,10 +28001,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="853">
@@ -28043,10 +28037,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -28077,10 +28069,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="855">
@@ -28111,10 +28101,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="856">
@@ -28145,10 +28133,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -28175,10 +28161,8 @@
       </c>
       <c r="F857" t="inlineStr"/>
       <c r="G857" t="inlineStr"/>
-      <c r="H857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="858">
@@ -28205,10 +28189,8 @@
       </c>
       <c r="F858" t="inlineStr"/>
       <c r="G858" t="inlineStr"/>
-      <c r="H858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="859">
@@ -28235,10 +28217,8 @@
       </c>
       <c r="F859" t="inlineStr"/>
       <c r="G859" t="inlineStr"/>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -28265,10 +28245,8 @@
       </c>
       <c r="F860" t="inlineStr"/>
       <c r="G860" t="inlineStr"/>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -28295,10 +28273,8 @@
       </c>
       <c r="F861" t="inlineStr"/>
       <c r="G861" t="inlineStr"/>
-      <c r="H861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -28321,10 +28297,8 @@
       </c>
       <c r="F862" t="inlineStr"/>
       <c r="G862" t="inlineStr"/>
-      <c r="H862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="863">
@@ -28369,10 +28343,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="865">
@@ -28403,10 +28375,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -28433,10 +28403,8 @@
       </c>
       <c r="F866" t="inlineStr"/>
       <c r="G866" t="inlineStr"/>
-      <c r="H866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="867">
@@ -28463,10 +28431,8 @@
       </c>
       <c r="F867" t="inlineStr"/>
       <c r="G867" t="inlineStr"/>
-      <c r="H867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="868">
@@ -28493,10 +28459,8 @@
       </c>
       <c r="F868" t="inlineStr"/>
       <c r="G868" t="inlineStr"/>
-      <c r="H868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="869">
@@ -28531,10 +28495,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="870">
@@ -28565,10 +28527,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="871">
@@ -28595,10 +28555,8 @@
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="872">
@@ -28617,88 +28575,86 @@
       <c r="E872" t="inlineStr"/>
       <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr">
+      <c r="H872" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr"/>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr"/>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="873">
-      <c r="A873" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B873" t="inlineStr"/>
-      <c r="C873" t="inlineStr"/>
-      <c r="D873" t="inlineStr"/>
-      <c r="E873" t="inlineStr"/>
-      <c r="F873" t="inlineStr"/>
-      <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr"/>
-    </row>
     <row r="874">
-      <c r="A874" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A874" t="inlineStr"/>
       <c r="B874" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F874" t="inlineStr"/>
       <c r="G874" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="875">
-      <c r="A875" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A875" t="inlineStr"/>
       <c r="B875" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
-      <c r="E875" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E875" t="inlineStr"/>
       <c r="F875" t="inlineStr"/>
-      <c r="G875" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G875" t="inlineStr"/>
       <c r="H875" t="inlineStr">
         <is>
           <t>3</t>
@@ -28708,59 +28664,35 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B876" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C876" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr"/>
+      <c r="C876" t="inlineStr"/>
       <c r="D876" t="inlineStr"/>
-      <c r="E876" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E876" t="inlineStr"/>
       <c r="F876" t="inlineStr"/>
-      <c r="G876" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G876" t="inlineStr"/>
+      <c r="H876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
-      <c r="E877" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
       <c r="H877" t="inlineStr">
@@ -28772,17 +28704,17 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D878" t="inlineStr"/>
@@ -28798,139 +28730,159 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D879" t="inlineStr"/>
-      <c r="E879" t="inlineStr"/>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
       <c r="H879" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F880" t="inlineStr"/>
-      <c r="G880" t="inlineStr"/>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F881" t="inlineStr"/>
       <c r="G881" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
-      <c r="E882" t="inlineStr"/>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
       <c r="H882" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr"/>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F883" t="inlineStr"/>
-      <c r="G883" t="inlineStr"/>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H883" t="inlineStr">
         <is>
           <t>3</t>
@@ -28940,23 +28892,31 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D884" t="inlineStr"/>
-      <c r="E884" t="inlineStr"/>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr"/>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H884" t="inlineStr">
         <is>
           <t>3</t>
@@ -28966,676 +28926,32 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D885" t="inlineStr"/>
-      <c r="E885" t="inlineStr"/>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr"/>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B886" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C886" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D886" t="inlineStr"/>
-      <c r="E886" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B887" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C887" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D887" t="inlineStr"/>
-      <c r="E887" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F887" t="inlineStr"/>
-      <c r="G887" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B888" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C888" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D888" t="inlineStr"/>
-      <c r="E888" t="inlineStr">
-        <is>
-          <t>$1234M</t>
-        </is>
-      </c>
-      <c r="F888" t="inlineStr"/>
-      <c r="G888" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B889" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C889" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D889" t="inlineStr"/>
-      <c r="E889" t="inlineStr"/>
-      <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B890" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C890" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D890" t="inlineStr"/>
-      <c r="E890" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B891" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C891" t="inlineStr">
-        <is>
-          <t>40-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D891" t="inlineStr"/>
-      <c r="E891" t="inlineStr">
-        <is>
-          <t>2.550%</t>
-        </is>
-      </c>
-      <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" t="inlineStr"/>
-      <c r="B892" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C892" t="inlineStr">
-        <is>
-          <t>10-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D892" t="inlineStr"/>
-      <c r="E892" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
-      <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" t="inlineStr"/>
-      <c r="B893" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C893" t="inlineStr">
-        <is>
-          <t>FDI (YTD) YoYDEC</t>
-        </is>
-      </c>
-      <c r="D893" t="inlineStr"/>
-      <c r="E893" t="inlineStr">
-        <is>
-          <t>-27.9%</t>
-        </is>
-      </c>
-      <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" t="inlineStr"/>
-      <c r="B894" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C894" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D894" t="inlineStr"/>
-      <c r="E894" t="inlineStr"/>
-      <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" t="inlineStr"/>
-      <c r="B895" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C895" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D895" t="inlineStr"/>
-      <c r="E895" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" t="inlineStr"/>
-      <c r="B896" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C896" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D896" t="inlineStr"/>
-      <c r="E896" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F896" t="inlineStr"/>
-      <c r="G896" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" t="inlineStr"/>
-      <c r="B897" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C897" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D897" t="inlineStr"/>
-      <c r="E897" t="inlineStr"/>
-      <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B898" t="inlineStr"/>
-      <c r="C898" t="inlineStr"/>
-      <c r="D898" t="inlineStr"/>
-      <c r="E898" t="inlineStr"/>
-      <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B899" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C899" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr"/>
-      <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B900" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C900" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D900" t="inlineStr"/>
-      <c r="E900" t="inlineStr"/>
-      <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B901" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C901" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYDEC</t>
-        </is>
-      </c>
-      <c r="D901" t="inlineStr"/>
-      <c r="E901" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B902" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C902" t="inlineStr">
-        <is>
-          <t>Unemployment RateNOV</t>
-        </is>
-      </c>
-      <c r="D902" t="inlineStr"/>
-      <c r="E902" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B903" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C903" t="inlineStr">
-        <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D903" t="inlineStr"/>
-      <c r="E903" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B904" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C904" t="inlineStr">
-        <is>
-          <t>Employment ChangeNOV</t>
-        </is>
-      </c>
-      <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
-      <c r="F904" t="inlineStr"/>
-      <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B905" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C905" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F905" t="inlineStr"/>
-      <c r="G905" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B906" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C906" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D906" t="inlineStr"/>
-      <c r="E906" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B907" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C907" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D907" t="inlineStr"/>
-      <c r="E907" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H907" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H885"/>
+  <dimension ref="A1:H891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28304,169 +28304,199 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B863" t="inlineStr"/>
-      <c r="C863" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D863" t="inlineStr"/>
       <c r="E863" t="inlineStr"/>
       <c r="F863" t="inlineStr"/>
       <c r="G863" t="inlineStr"/>
-      <c r="H863" t="inlineStr"/>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D864" t="inlineStr"/>
       <c r="E864" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F864" t="inlineStr"/>
       <c r="G864" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H864" t="n">
-        <v>2</v>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F865" t="inlineStr"/>
       <c r="G865" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="H865" t="n">
-        <v>2</v>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F866" t="inlineStr"/>
-      <c r="G866" t="inlineStr"/>
-      <c r="H866" t="n">
-        <v>2</v>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D867" t="inlineStr"/>
-      <c r="E867" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E867" t="inlineStr"/>
       <c r="F867" t="inlineStr"/>
-      <c r="G867" t="inlineStr"/>
-      <c r="H867" t="n">
-        <v>2</v>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F868" t="inlineStr"/>
-      <c r="G868" t="inlineStr"/>
-      <c r="H868" t="n">
-        <v>3</v>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -28476,107 +28506,99 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D869" t="inlineStr"/>
       <c r="E869" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F869" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G869" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="H869" t="n">
-        <v>3</v>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="inlineStr"/>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="870">
-      <c r="A870" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A870" t="inlineStr"/>
       <c r="B870" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
       <c r="E870" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F870" t="inlineStr"/>
-      <c r="G870" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H870" t="n">
-        <v>3</v>
+      <c r="G870" t="inlineStr"/>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="871">
-      <c r="A871" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A871" t="inlineStr"/>
       <c r="B871" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D871" t="inlineStr"/>
       <c r="E871" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F871" t="inlineStr"/>
       <c r="G871" t="inlineStr"/>
-      <c r="H871" t="n">
-        <v>3</v>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr"/>
       <c r="B872" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr"/>
       <c r="F872" t="inlineStr"/>
-      <c r="G872" t="inlineStr"/>
-      <c r="H872" t="n">
-        <v>3</v>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="873">
@@ -28957,6 +28979,186 @@
         </is>
       </c>
     </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Gold Production YoYNOV</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr"/>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="inlineStr"/>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Mining Production MoMNOV</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr"/>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="inlineStr"/>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Mining Production YoYNOV</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr"/>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="inlineStr"/>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>ZEW Economic Sentiment IndexJAN</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr"/>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="inlineStr"/>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>ZEW Economic Sentiment IndexJAN</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr"/>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>15.7</t>
+        </is>
+      </c>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="inlineStr"/>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>ZEW Current ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr"/>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="inlineStr"/>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1218"/>
+  <dimension ref="A1:H1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28699,10 +28699,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -28733,10 +28731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -28771,10 +28767,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -28809,10 +28803,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -28847,10 +28839,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -28873,10 +28863,8 @@
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -28925,10 +28913,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28959,10 +28945,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28993,10 +28977,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29005,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29053,10 +29033,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29083,10 +29061,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29121,10 +29097,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29189,10 +29161,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29223,10 +29193,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29253,10 +29221,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29283,10 +29249,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29313,10 +29277,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29309,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29337,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29365,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29441,10 +29397,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29471,10 +29425,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -29501,10 +29453,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -29539,10 +29489,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -29577,10 +29525,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29611,10 +29557,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29645,10 +29589,8 @@
         </is>
       </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29675,10 +29617,8 @@
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29701,10 +29641,8 @@
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29731,10 +29669,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29761,10 +29697,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29791,10 +29725,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29825,10 +29757,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29855,10 +29785,8 @@
         </is>
       </c>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29889,10 +29817,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29923,10 +29849,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29949,10 +29873,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29971,10 +29893,8 @@
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30023,10 +29943,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30057,10 +29975,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30087,10 +30003,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30117,10 +30031,8 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30151,10 +30063,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30185,10 +30095,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30223,10 +30131,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30257,10 +30163,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30283,10 +30187,8 @@
       <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30317,10 +30219,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30343,10 +30243,8 @@
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30381,10 +30279,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -30415,10 +30311,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30445,10 +30339,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30475,10 +30367,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30505,10 +30395,8 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30535,10 +30423,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30561,10 +30447,8 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30599,10 +30483,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30633,10 +30515,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30671,10 +30551,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H939" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -30709,10 +30587,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -30747,10 +30623,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30781,10 +30655,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30815,10 +30687,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30849,10 +30719,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30887,10 +30755,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30917,10 +30783,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30943,10 +30807,8 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -30981,10 +30843,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31011,10 +30871,8 @@
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31045,10 +30903,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31079,10 +30935,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31105,10 +30959,8 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31139,10 +30991,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31173,10 +31023,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31203,10 +31051,8 @@
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31237,10 +31083,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31263,10 +31107,8 @@
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31301,10 +31143,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -31335,10 +31175,8 @@
         </is>
       </c>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31369,10 +31207,8 @@
         </is>
       </c>
       <c r="G960" t="inlineStr"/>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="961">
@@ -31395,10 +31231,8 @@
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31421,10 +31255,8 @@
       </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="963">
@@ -31473,10 +31305,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="965">
@@ -31511,10 +31341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31545,10 +31373,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31583,10 +31409,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H967" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -31621,10 +31445,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -31655,10 +31477,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="970">
@@ -31689,10 +31509,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31723,10 +31541,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31757,10 +31573,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31795,10 +31609,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31829,10 +31641,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31867,10 +31677,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31901,10 +31709,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31935,10 +31741,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -31973,10 +31777,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32007,10 +31809,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32041,10 +31841,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32075,10 +31873,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32109,10 +31905,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32147,10 +31941,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -32185,10 +31977,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H984" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -32223,10 +32013,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32261,10 +32049,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32287,10 +32073,8 @@
       <c r="E987" t="inlineStr"/>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32325,10 +32109,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32363,10 +32145,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32401,10 +32181,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -32439,10 +32217,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32477,10 +32253,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32503,10 +32277,8 @@
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -32541,10 +32313,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H994" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -32579,10 +32349,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -32617,10 +32385,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32647,10 +32413,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32677,10 +32441,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32711,10 +32473,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32745,10 +32505,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32775,10 +32533,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -32805,10 +32561,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32835,10 +32589,8 @@
       </c>
       <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32865,10 +32617,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32895,10 +32645,8 @@
       </c>
       <c r="F1005" t="inlineStr"/>
       <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32933,10 +32681,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -32963,10 +32709,8 @@
       </c>
       <c r="F1007" t="inlineStr"/>
       <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
@@ -33001,10 +32745,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1009">
@@ -33039,10 +32781,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33077,10 +32817,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -33115,10 +32853,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -33153,10 +32889,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -33187,10 +32921,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33221,10 +32953,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33259,10 +32989,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33285,10 +33013,8 @@
       <c r="E1016" t="inlineStr"/>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33311,10 +33037,8 @@
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -33341,10 +33065,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -33371,10 +33093,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -33401,10 +33121,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33431,10 +33149,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33461,10 +33177,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33491,10 +33205,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33521,10 +33233,8 @@
       </c>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -33551,10 +33261,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33581,10 +33289,8 @@
       </c>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -33619,10 +33325,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -33657,10 +33361,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33683,10 +33385,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -33713,10 +33413,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33747,10 +33445,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33777,10 +33473,8 @@
       </c>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33803,10 +33497,8 @@
       <c r="E1033" t="inlineStr"/>
       <c r="F1033" t="inlineStr"/>
       <c r="G1033" t="inlineStr"/>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33829,10 +33521,8 @@
       <c r="E1034" t="inlineStr"/>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33855,10 +33545,8 @@
       <c r="E1035" t="inlineStr"/>
       <c r="F1035" t="inlineStr"/>
       <c r="G1035" t="inlineStr"/>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33889,10 +33577,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33923,10 +33609,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -33961,10 +33645,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -33999,10 +33681,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34037,10 +33717,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -34075,10 +33753,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -34105,10 +33781,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34135,10 +33809,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34173,10 +33845,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34211,10 +33881,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -34241,10 +33909,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34271,10 +33937,8 @@
       </c>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34301,10 +33965,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34331,10 +33993,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34361,10 +34021,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34387,10 +34045,8 @@
       </c>
       <c r="F1051" t="inlineStr"/>
       <c r="G1051" t="inlineStr"/>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34409,10 +34065,8 @@
       <c r="E1052" t="inlineStr"/>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34439,10 +34093,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -34469,10 +34121,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34499,10 +34149,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34543,10 +34191,8 @@
       </c>
       <c r="F1057" t="inlineStr"/>
       <c r="G1057" t="inlineStr"/>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34581,10 +34227,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1059">
@@ -34619,10 +34263,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34657,10 +34299,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -34695,10 +34335,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -34733,10 +34371,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -34767,10 +34403,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -34805,10 +34439,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34843,10 +34475,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34877,10 +34507,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -34915,10 +34543,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -34953,10 +34579,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -34987,10 +34611,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35021,10 +34643,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -35059,10 +34679,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35097,10 +34715,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35135,10 +34751,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1074">
@@ -35173,10 +34787,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -35211,10 +34823,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -35249,10 +34859,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35287,10 +34895,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35313,10 +34919,8 @@
       <c r="E1078" t="inlineStr"/>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35343,10 +34947,8 @@
       </c>
       <c r="F1079" t="inlineStr"/>
       <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35369,10 +34971,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35399,10 +34999,8 @@
       </c>
       <c r="F1081" t="inlineStr"/>
       <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35433,10 +35031,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35463,10 +35059,8 @@
       </c>
       <c r="F1083" t="inlineStr"/>
       <c r="G1083" t="inlineStr"/>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35497,10 +35091,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -35523,10 +35115,8 @@
       <c r="E1085" t="inlineStr"/>
       <c r="F1085" t="inlineStr"/>
       <c r="G1085" t="inlineStr"/>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35557,10 +35147,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -35595,10 +35183,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35633,10 +35219,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -35667,10 +35251,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35701,10 +35283,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35739,10 +35319,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -35777,10 +35355,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -35815,10 +35391,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -35849,10 +35423,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35883,10 +35455,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35917,10 +35487,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35951,10 +35519,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35981,10 +35547,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36011,10 +35575,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36041,10 +35603,8 @@
       </c>
       <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr"/>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36071,10 +35631,8 @@
       </c>
       <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr"/>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36101,10 +35659,8 @@
       </c>
       <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr"/>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36135,10 +35691,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36169,10 +35723,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36207,10 +35759,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -36245,10 +35795,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -36283,10 +35831,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36313,10 +35859,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36343,10 +35887,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36373,10 +35915,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36403,10 +35943,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36433,10 +35971,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36459,10 +35995,8 @@
       <c r="E1113" t="inlineStr"/>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -36489,10 +36023,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36519,10 +36051,8 @@
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36549,10 +36079,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36583,10 +36111,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -36621,10 +36147,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36651,10 +36175,8 @@
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -36685,10 +36207,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36719,10 +36239,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -36757,10 +36275,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -36795,10 +36311,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -36833,10 +36347,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -36871,10 +36383,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -36909,10 +36419,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1127">
@@ -36943,10 +36451,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -36981,10 +36487,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -37011,94 +36515,108 @@
       </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37110,29 +36628,33 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1133" t="inlineStr">
@@ -37144,29 +36666,29 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1134" t="inlineStr">
@@ -37178,29 +36700,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1135" t="inlineStr">
@@ -37212,27 +36734,31 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37242,145 +36768,117 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1139" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
           <t>3</t>
@@ -37390,35 +36888,27 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
           <t>3</t>
@@ -37426,23 +36916,23 @@
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1142" t="inlineStr"/>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
@@ -37454,173 +36944,165 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
       <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr"/>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1148" t="inlineStr"/>
@@ -37634,27 +37116,35 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1149" t="inlineStr">
         <is>
           <t>3</t>
@@ -37664,177 +37154,129 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr">
@@ -37846,33 +37288,29 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr">
@@ -37884,29 +37322,29 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1156" t="inlineStr">
@@ -37918,17 +37356,17 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
@@ -37938,11 +37376,7 @@
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
           <t>3</t>
@@ -37952,31 +37386,23 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -37986,25 +37412,21 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38016,23 +37438,23 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38046,55 +37468,55 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
@@ -38106,25 +37528,21 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
@@ -38134,23 +37552,23 @@
       </c>
     </row>
     <row r="1164">
-      <c r="A1164" t="inlineStr"/>
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
@@ -38162,169 +37580,189 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
       <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38334,7 +37772,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -38344,25 +37782,17 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38370,33 +37800,25 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -38404,25 +37826,21 @@
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
@@ -38437,18 +37855,22 @@
       <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38456,81 +37878,81 @@
       </c>
     </row>
     <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+      <c r="A1175" t="inlineStr"/>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1176" t="inlineStr"/>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1177" t="inlineStr"/>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -38540,59 +37962,35 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
@@ -38604,17 +38002,17 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
@@ -38630,139 +38028,159 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
       <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38772,23 +38190,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38798,57 +38224,61 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
           <t>3</t>
@@ -38858,31 +38288,27 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -38892,31 +38318,27 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
         <is>
           <t>3</t>
@@ -38926,87 +38348,83 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
@@ -39018,23 +38436,23 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
@@ -39044,21 +38462,25 @@
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
@@ -39070,670 +38492,30 @@
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr"/>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H1197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr"/>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr">
-        <is>
-          <t>Central Government DebtDEC</t>
-        </is>
-      </c>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>TRY9.005T</t>
-        </is>
-      </c>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>TRY 9.0T</t>
-        </is>
-      </c>
-      <c r="H1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr"/>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr">
-        <is>
-          <t>ECOFIN Meeting</t>
-        </is>
-      </c>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
-      <c r="H1199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>Unemployment RateNOV</t>
-        </is>
-      </c>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr">
-        <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="H1205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr">
-        <is>
-          <t>Employment ChangeNOV</t>
-        </is>
-      </c>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1222"/>
+  <dimension ref="A1:H1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28895,10 +28895,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28925,10 +28923,8 @@
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28955,10 +28951,8 @@
       </c>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28985,10 +28979,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29015,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="888">
@@ -29057,10 +29047,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29091,10 +29079,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29125,10 +29111,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29139,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29185,10 +29167,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29215,10 +29195,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29249,10 +29227,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29279,10 +29255,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29309,10 +29283,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29343,10 +29315,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -29373,10 +29343,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -29403,10 +29371,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29441,10 +29407,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29479,10 +29443,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -29513,10 +29475,8 @@
         </is>
       </c>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29547,10 +29507,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29577,10 +29535,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29603,10 +29559,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29633,10 +29587,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29663,10 +29615,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29693,10 +29643,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29727,10 +29675,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29757,10 +29703,8 @@
         </is>
       </c>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29791,10 +29735,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29825,10 +29767,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29851,10 +29791,8 @@
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29873,10 +29811,8 @@
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29925,10 +29861,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29959,10 +29893,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -29989,10 +29921,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30019,10 +29949,8 @@
       </c>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30053,10 +29981,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30087,10 +30013,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30125,10 +30049,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30159,10 +30081,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30185,10 +30105,8 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30219,10 +30137,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30245,10 +30161,8 @@
       <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30283,10 +30197,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -30317,10 +30229,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30347,10 +30257,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30377,10 +30285,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30407,10 +30313,8 @@
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30437,10 +30341,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30463,10 +30365,8 @@
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30501,10 +30401,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30535,10 +30433,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30573,10 +30469,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -30611,10 +30505,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -30649,10 +30541,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30683,10 +30573,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30717,10 +30605,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30751,10 +30637,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30789,10 +30673,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30819,10 +30701,8 @@
       </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30845,10 +30725,8 @@
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H944" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -30883,10 +30761,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30913,10 +30789,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30947,10 +30821,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="948">
@@ -30981,10 +30853,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31007,10 +30877,8 @@
       <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -31041,10 +30909,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31075,10 +30941,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31105,10 +30969,8 @@
       </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31139,10 +31001,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31165,10 +31025,8 @@
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31203,10 +31061,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31237,10 +31093,8 @@
         </is>
       </c>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31271,10 +31125,8 @@
         </is>
       </c>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31297,10 +31149,8 @@
       </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -31323,10 +31173,8 @@
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31375,10 +31223,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31413,10 +31259,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -31447,10 +31291,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31485,10 +31327,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H964" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -31523,10 +31363,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31557,10 +31395,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31591,10 +31427,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31625,10 +31459,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31659,10 +31491,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31697,10 +31527,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31731,10 +31559,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31769,10 +31595,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31803,10 +31627,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31837,10 +31659,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31875,10 +31695,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31909,10 +31727,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31943,10 +31759,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H977" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -31977,10 +31791,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32011,10 +31823,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32049,10 +31859,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32087,10 +31895,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -32125,10 +31931,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32163,10 +31967,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32189,10 +31991,8 @@
       <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32227,10 +32027,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32265,10 +32063,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32303,10 +32099,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32341,10 +32135,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32379,10 +32171,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32405,10 +32195,8 @@
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr"/>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32443,10 +32231,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H991" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -32481,10 +32267,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -32519,10 +32303,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32549,10 +32331,8 @@
       </c>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32579,10 +32359,8 @@
       </c>
       <c r="F995" t="inlineStr"/>
       <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32613,10 +32391,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32647,10 +32423,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32677,10 +32451,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -32707,10 +32479,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32737,10 +32507,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32767,10 +32535,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32797,10 +32563,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32835,10 +32599,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32865,10 +32627,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32903,10 +32663,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32941,10 +32699,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -32979,10 +32735,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33017,10 +32771,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -33055,10 +32807,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33089,10 +32839,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33123,10 +32871,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33161,10 +32907,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33187,10 +32931,8 @@
       <c r="E1013" t="inlineStr"/>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33213,10 +32955,8 @@
       <c r="E1014" t="inlineStr"/>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33243,10 +32983,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33273,10 +33011,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33303,10 +33039,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33333,10 +33067,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33363,10 +33095,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33393,10 +33123,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33423,10 +33151,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33453,10 +33179,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33483,10 +33207,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33521,10 +33243,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33559,10 +33279,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -33585,10 +33303,8 @@
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33615,10 +33331,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33649,10 +33363,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33679,10 +33391,8 @@
       </c>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33705,10 +33415,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1031">
@@ -33731,10 +33439,8 @@
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
       <c r="G1031" t="inlineStr"/>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -33757,10 +33463,8 @@
       <c r="E1032" t="inlineStr"/>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33791,10 +33495,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33825,10 +33527,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33863,10 +33563,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33901,10 +33599,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33939,10 +33635,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -33977,10 +33671,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -34007,10 +33699,8 @@
       </c>
       <c r="F1039" t="inlineStr"/>
       <c r="G1039" t="inlineStr"/>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34037,10 +33727,8 @@
       </c>
       <c r="F1040" t="inlineStr"/>
       <c r="G1040" t="inlineStr"/>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -34075,10 +33763,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34113,10 +33799,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34143,10 +33827,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34173,10 +33855,8 @@
       </c>
       <c r="F1044" t="inlineStr"/>
       <c r="G1044" t="inlineStr"/>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34203,10 +33883,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34233,10 +33911,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34263,10 +33939,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34289,10 +33963,8 @@
       </c>
       <c r="F1048" t="inlineStr"/>
       <c r="G1048" t="inlineStr"/>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34311,10 +33983,8 @@
       <c r="E1049" t="inlineStr"/>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34341,10 +34011,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34371,10 +34039,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34401,10 +34067,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34445,10 +34109,8 @@
       </c>
       <c r="F1054" t="inlineStr"/>
       <c r="G1054" t="inlineStr"/>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34483,10 +34145,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -34521,10 +34181,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -34559,10 +34217,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34597,10 +34253,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34635,10 +34289,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -34669,10 +34321,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -34707,10 +34357,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34745,10 +34393,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34779,10 +34425,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34817,10 +34461,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34855,10 +34497,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34889,10 +34529,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -34923,10 +34561,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -34961,10 +34597,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -34999,10 +34633,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35037,10 +34669,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35075,10 +34705,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -35113,10 +34741,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -35151,10 +34777,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35189,10 +34813,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35215,10 +34837,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35245,10 +34865,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35271,10 +34889,8 @@
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
       <c r="G1077" t="inlineStr"/>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35301,10 +34917,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35335,10 +34949,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -35365,10 +34977,8 @@
       </c>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35399,10 +35009,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35425,10 +35033,8 @@
       <c r="E1082" t="inlineStr"/>
       <c r="F1082" t="inlineStr"/>
       <c r="G1082" t="inlineStr"/>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35459,10 +35065,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35497,10 +35101,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35535,10 +35137,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
@@ -35569,10 +35169,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35603,10 +35201,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35641,10 +35237,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35679,10 +35273,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35717,10 +35309,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35751,10 +35341,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35785,10 +35373,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35819,10 +35405,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35853,10 +35437,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35883,10 +35465,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35913,10 +35493,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35943,10 +35521,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35973,10 +35549,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36003,10 +35577,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36037,10 +35609,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36071,10 +35641,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36109,10 +35677,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -36147,10 +35713,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1104">
@@ -36185,10 +35749,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36215,10 +35777,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36245,10 +35805,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36275,10 +35833,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36305,10 +35861,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36335,10 +35889,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36361,10 +35913,8 @@
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -36391,10 +35941,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36421,10 +35969,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36451,10 +35997,8 @@
       </c>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36485,10 +36029,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36523,10 +36065,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36553,10 +36093,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36587,10 +36125,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -36621,10 +36157,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36659,10 +36193,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36697,10 +36229,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -36735,10 +36265,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -36773,10 +36301,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -36811,10 +36337,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -36845,10 +36369,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -36883,10 +36405,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -36913,94 +36433,108 @@
       </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37012,29 +36546,33 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1130" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37046,29 +36584,29 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
@@ -37080,29 +36618,29 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37114,27 +36652,31 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -37144,145 +36686,117 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
           <t>3</t>
@@ -37292,35 +36806,27 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37328,23 +36834,23 @@
       </c>
     </row>
     <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1139" t="inlineStr"/>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
@@ -37356,173 +36862,165 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
       <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
@@ -37536,27 +37034,35 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1146" t="inlineStr">
         <is>
           <t>3</t>
@@ -37566,177 +37072,129 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1148" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1149" t="inlineStr"/>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1150" t="inlineStr"/>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37748,33 +37206,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37786,29 +37240,29 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr">
@@ -37820,17 +37274,17 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
@@ -37840,11 +37294,7 @@
         </is>
       </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37854,31 +37304,23 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -37888,25 +37330,21 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1156" t="inlineStr"/>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
@@ -37918,23 +37356,23 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
@@ -37948,55 +37386,55 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38008,25 +37446,21 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -38036,23 +37470,23 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
       <c r="H1161" t="inlineStr">
@@ -38064,169 +37498,189 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38236,7 +37690,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -38246,25 +37700,17 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38272,33 +37718,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
           <t>3</t>
@@ -38306,25 +37744,21 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -38339,18 +37773,22 @@
       <c r="A1171" t="inlineStr"/>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38358,81 +37796,81 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr"/>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38442,59 +37880,35 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1175" t="inlineStr"/>
+      <c r="H1175" t="inlineStr"/>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
@@ -38506,17 +37920,17 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
@@ -38532,139 +37946,159 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38674,23 +38108,31 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
           <t>3</t>
@@ -38700,57 +38142,61 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38760,31 +38206,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38794,31 +38236,27 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
           <t>3</t>
@@ -38828,87 +38266,83 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
@@ -38920,23 +38354,23 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
@@ -38946,21 +38380,25 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38972,25 +38410,29 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
         <is>
           <t>3</t>
@@ -38998,121 +38440,169 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39122,23 +38612,27 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -39148,720 +38642,24 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr">
-        <is>
-          <t>Unemployment RateNOV</t>
-        </is>
-      </c>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1201" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr">
-        <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="H1202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr">
-        <is>
-          <t>Employment ChangeNOV</t>
-        </is>
-      </c>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
-      <c r="H1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
-      <c r="H1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1200"/>
+  <dimension ref="A1:H1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36465,10 +36465,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -36499,10 +36497,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1129">
@@ -36537,10 +36533,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -36575,10 +36569,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1131">
@@ -36609,10 +36601,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -36643,10 +36633,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -36677,10 +36665,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -36707,10 +36693,8 @@
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -36737,10 +36721,8 @@
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -36767,10 +36749,8 @@
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -36797,10 +36777,8 @@
       </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -36827,10 +36805,8 @@
       </c>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -36853,10 +36829,8 @@
       </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -36901,10 +36875,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -36935,10 +36907,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1143">
@@ -36965,10 +36935,8 @@
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -36995,10 +36963,8 @@
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -37025,10 +36991,8 @@
       </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -37063,10 +37027,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1147">
@@ -37097,10 +37059,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
@@ -37127,10 +37087,8 @@
       </c>
       <c r="F1148" t="inlineStr"/>
       <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
@@ -37149,88 +37107,86 @@
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
+      <c r="H1149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr"/>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-    </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1151" t="inlineStr"/>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
           <t>3</t>
@@ -37240,59 +37196,35 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
@@ -37304,17 +37236,17 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
@@ -37330,139 +37262,159 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -37472,23 +37424,31 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -37498,57 +37458,61 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
           <t>3</t>
@@ -37558,31 +37522,27 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
           <t>3</t>
@@ -37592,31 +37552,27 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
           <t>3</t>
@@ -37626,87 +37582,83 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
@@ -37718,23 +37670,23 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
       <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
@@ -37744,21 +37696,25 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -37770,25 +37726,29 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -37796,121 +37756,169 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr"/>
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -37920,23 +37928,27 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -37946,720 +37958,24 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr">
-        <is>
-          <t>Unemployment RateNOV</t>
-        </is>
-      </c>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="H1179" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr">
-        <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="H1180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr">
-        <is>
-          <t>Employment ChangeNOV</t>
-        </is>
-      </c>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
-      <c r="H1181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-      <c r="H1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
-      <c r="H1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
-      <c r="H1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1189" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1195" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1196" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1200" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1228"/>
+  <dimension ref="A1:H1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28699,10 +28699,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -28733,10 +28731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -28771,10 +28767,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -28809,10 +28803,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -28847,10 +28839,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -28873,10 +28863,8 @@
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -28925,10 +28913,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28959,10 +28945,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28993,10 +28977,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29005,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29053,10 +29033,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29083,10 +29061,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29121,10 +29097,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29189,10 +29161,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29223,10 +29193,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29253,10 +29221,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29283,10 +29249,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29313,10 +29277,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29309,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29337,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29365,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29441,10 +29397,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29471,10 +29425,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -29501,10 +29453,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -29539,10 +29489,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -29577,10 +29525,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29611,10 +29557,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29645,10 +29589,8 @@
         </is>
       </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29675,10 +29617,8 @@
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29701,10 +29641,8 @@
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29731,10 +29669,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29761,10 +29697,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29791,10 +29725,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29825,10 +29757,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29855,10 +29785,8 @@
         </is>
       </c>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29889,10 +29817,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29923,10 +29849,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29949,10 +29873,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29971,10 +29893,8 @@
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30023,10 +29943,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30057,10 +29975,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30087,10 +30003,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30117,10 +30031,8 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30151,10 +30063,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30185,10 +30095,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30223,10 +30131,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30257,10 +30163,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30283,10 +30187,8 @@
       <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30317,10 +30219,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30343,10 +30243,8 @@
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30381,10 +30279,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -30415,10 +30311,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30445,10 +30339,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30475,10 +30367,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30505,10 +30395,8 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30535,10 +30423,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30561,10 +30447,8 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30599,10 +30483,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30633,10 +30515,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30671,10 +30551,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H939" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -30709,10 +30587,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -30747,10 +30623,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30781,10 +30655,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30815,10 +30687,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30849,10 +30719,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30887,10 +30755,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30917,10 +30783,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30943,10 +30807,8 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -30981,10 +30843,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31011,10 +30871,8 @@
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31045,10 +30903,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31079,10 +30935,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31105,10 +30959,8 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31139,10 +30991,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31173,10 +31023,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31203,10 +31051,8 @@
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31237,10 +31083,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31263,10 +31107,8 @@
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31301,10 +31143,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -31335,10 +31175,8 @@
         </is>
       </c>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31369,10 +31207,8 @@
         </is>
       </c>
       <c r="G960" t="inlineStr"/>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="961">
@@ -31395,10 +31231,8 @@
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31421,10 +31255,8 @@
       </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="963">
@@ -31473,10 +31305,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="965">
@@ -31511,10 +31341,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31545,10 +31373,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31583,10 +31409,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H967" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -31621,10 +31445,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -31655,10 +31477,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="970">
@@ -31689,10 +31509,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31723,10 +31541,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31757,10 +31573,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31795,10 +31609,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31829,10 +31641,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31867,10 +31677,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31901,10 +31709,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31935,10 +31741,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -31973,10 +31777,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32007,10 +31809,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32041,10 +31841,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32075,10 +31873,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32109,10 +31905,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32147,10 +31941,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -32185,10 +31977,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H984" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -32223,10 +32013,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32261,10 +32049,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32287,10 +32073,8 @@
       <c r="E987" t="inlineStr"/>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32325,10 +32109,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32363,10 +32145,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32401,10 +32181,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -32439,10 +32217,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32477,10 +32253,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32503,10 +32277,8 @@
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -32541,10 +32313,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H994" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -32579,10 +32349,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -32617,10 +32385,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32647,10 +32413,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32677,10 +32441,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32711,10 +32473,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32745,10 +32505,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32775,10 +32533,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -32805,10 +32561,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32835,10 +32589,8 @@
       </c>
       <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32865,10 +32617,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32895,10 +32645,8 @@
       </c>
       <c r="F1005" t="inlineStr"/>
       <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32933,10 +32681,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -32963,10 +32709,8 @@
       </c>
       <c r="F1007" t="inlineStr"/>
       <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
@@ -33001,10 +32745,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1009">
@@ -33039,10 +32781,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33077,10 +32817,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -33115,10 +32853,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -33153,10 +32889,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -33187,10 +32921,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33221,10 +32953,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33259,10 +32989,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33285,10 +33013,8 @@
       <c r="E1016" t="inlineStr"/>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33311,10 +33037,8 @@
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -33341,10 +33065,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -33371,10 +33093,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -33401,10 +33121,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33431,10 +33149,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33461,10 +33177,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33491,10 +33205,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33521,10 +33233,8 @@
       </c>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -33551,10 +33261,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33581,10 +33289,8 @@
       </c>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -33619,10 +33325,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -33657,10 +33361,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33683,10 +33385,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -33713,10 +33413,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33747,10 +33445,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33777,10 +33473,8 @@
       </c>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33803,10 +33497,8 @@
       <c r="E1033" t="inlineStr"/>
       <c r="F1033" t="inlineStr"/>
       <c r="G1033" t="inlineStr"/>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33829,10 +33521,8 @@
       <c r="E1034" t="inlineStr"/>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33855,10 +33545,8 @@
       <c r="E1035" t="inlineStr"/>
       <c r="F1035" t="inlineStr"/>
       <c r="G1035" t="inlineStr"/>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33889,10 +33577,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33923,10 +33609,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -33961,10 +33645,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -33999,10 +33681,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34037,10 +33717,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -34075,10 +33753,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -34105,10 +33781,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34135,10 +33809,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34173,10 +33845,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34211,10 +33881,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -34241,10 +33909,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34271,10 +33937,8 @@
       </c>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34301,10 +33965,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34331,10 +33993,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34361,10 +34021,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34387,10 +34045,8 @@
       </c>
       <c r="F1051" t="inlineStr"/>
       <c r="G1051" t="inlineStr"/>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34409,10 +34065,8 @@
       <c r="E1052" t="inlineStr"/>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34439,10 +34093,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -34469,10 +34121,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34499,10 +34149,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34543,10 +34191,8 @@
       </c>
       <c r="F1057" t="inlineStr"/>
       <c r="G1057" t="inlineStr"/>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34581,10 +34227,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1059">
@@ -34619,10 +34263,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34657,10 +34299,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -34695,10 +34335,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -34733,10 +34371,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -34767,10 +34403,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -34805,10 +34439,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34843,10 +34475,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34877,10 +34507,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -34915,10 +34543,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -34953,10 +34579,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -34987,10 +34611,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35021,10 +34643,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -35059,10 +34679,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35097,10 +34715,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35135,10 +34751,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1074">
@@ -35173,10 +34787,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -35211,10 +34823,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -35249,10 +34859,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35287,10 +34895,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35313,10 +34919,8 @@
       <c r="E1078" t="inlineStr"/>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35343,10 +34947,8 @@
       </c>
       <c r="F1079" t="inlineStr"/>
       <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35369,10 +34971,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35399,10 +34999,8 @@
       </c>
       <c r="F1081" t="inlineStr"/>
       <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35433,10 +35031,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35463,10 +35059,8 @@
       </c>
       <c r="F1083" t="inlineStr"/>
       <c r="G1083" t="inlineStr"/>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35497,10 +35091,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -35523,10 +35115,8 @@
       <c r="E1085" t="inlineStr"/>
       <c r="F1085" t="inlineStr"/>
       <c r="G1085" t="inlineStr"/>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35557,10 +35147,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -35595,10 +35183,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35633,10 +35219,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -35667,10 +35251,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35701,10 +35283,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35739,10 +35319,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -35777,10 +35355,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -35815,10 +35391,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -35849,10 +35423,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35883,10 +35455,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35917,10 +35487,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35951,10 +35519,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35981,10 +35547,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36011,10 +35575,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36041,10 +35603,8 @@
       </c>
       <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr"/>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36071,10 +35631,8 @@
       </c>
       <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr"/>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36101,10 +35659,8 @@
       </c>
       <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr"/>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36135,10 +35691,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36169,10 +35723,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36207,10 +35759,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -36245,10 +35795,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -36283,10 +35831,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36313,10 +35859,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36343,10 +35887,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36373,10 +35915,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36403,10 +35943,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36433,10 +35971,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36459,10 +35995,8 @@
       <c r="E1113" t="inlineStr"/>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -36489,10 +36023,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36519,10 +36051,8 @@
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36549,10 +36079,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36583,10 +36111,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -36621,10 +36147,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36651,10 +36175,8 @@
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -36685,10 +36207,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36719,10 +36239,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -36757,10 +36275,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -36795,10 +36311,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -36833,10 +36347,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -36871,10 +36383,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -36909,10 +36419,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1127">
@@ -36943,10 +36451,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -36981,10 +36487,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -37011,94 +36515,108 @@
       </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37110,29 +36628,33 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1133" t="inlineStr">
@@ -37144,29 +36666,29 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1134" t="inlineStr">
@@ -37178,29 +36700,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1135" t="inlineStr">
@@ -37212,27 +36734,31 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37242,145 +36768,117 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1139" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
           <t>3</t>
@@ -37390,35 +36888,27 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
           <t>3</t>
@@ -37426,23 +36916,23 @@
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1142" t="inlineStr"/>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
@@ -37454,173 +36944,165 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
       <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr"/>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1148" t="inlineStr"/>
@@ -37634,27 +37116,35 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1149" t="inlineStr">
         <is>
           <t>3</t>
@@ -37664,177 +37154,129 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr">
@@ -37846,33 +37288,29 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr">
@@ -37884,29 +37322,29 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1156" t="inlineStr">
@@ -37918,17 +37356,17 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
@@ -37938,11 +37376,7 @@
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
           <t>3</t>
@@ -37952,31 +37386,23 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -37986,25 +37412,21 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38016,23 +37438,23 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38046,55 +37468,55 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
@@ -38106,25 +37528,21 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
@@ -38134,23 +37552,23 @@
       </c>
     </row>
     <row r="1164">
-      <c r="A1164" t="inlineStr"/>
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
@@ -38162,169 +37580,189 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
       <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38334,7 +37772,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -38344,25 +37782,17 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38370,33 +37800,25 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -38404,25 +37826,21 @@
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
@@ -38437,18 +37855,22 @@
       <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38456,81 +37878,81 @@
       </c>
     </row>
     <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+      <c r="A1175" t="inlineStr"/>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1176" t="inlineStr"/>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1177" t="inlineStr"/>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -38540,59 +37962,35 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
@@ -38604,17 +38002,17 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
@@ -38630,139 +38028,159 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
       <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38772,23 +38190,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38798,57 +38224,61 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
           <t>3</t>
@@ -38858,31 +38288,27 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -38892,31 +38318,27 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
         <is>
           <t>3</t>
@@ -38926,87 +38348,83 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
@@ -39018,23 +38436,23 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
@@ -39044,21 +38462,25 @@
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
@@ -39070,25 +38492,29 @@
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>3</t>
@@ -39096,121 +38522,169 @@
       </c>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr"/>
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr"/>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr"/>
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -39220,23 +38694,27 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -39246,798 +38724,102 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1228" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1225"/>
+  <dimension ref="A1:H1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28895,10 +28895,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28925,10 +28923,8 @@
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28955,10 +28951,8 @@
       </c>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28985,10 +28979,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29015,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="888">
@@ -29057,10 +29047,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29091,10 +29079,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29125,10 +29111,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29139,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29185,10 +29167,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29215,10 +29195,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29249,10 +29227,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29279,10 +29255,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29309,10 +29283,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29319,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29347,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29375,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29445,10 +29411,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29483,10 +29447,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -29517,10 +29479,8 @@
         </is>
       </c>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29551,10 +29511,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29581,10 +29539,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29607,10 +29563,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29637,10 +29591,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29667,10 +29619,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29697,10 +29647,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29731,10 +29679,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29761,10 +29707,8 @@
         </is>
       </c>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29795,10 +29739,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29829,10 +29771,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29855,10 +29795,8 @@
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29877,10 +29815,8 @@
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29929,10 +29865,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29963,10 +29897,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -29993,10 +29925,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30023,10 +29953,8 @@
       </c>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30057,10 +29985,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30091,10 +30017,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30129,10 +30053,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30163,10 +30085,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30189,10 +30109,8 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30223,10 +30141,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30249,10 +30165,8 @@
       <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30287,10 +30201,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -30321,10 +30233,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30351,10 +30261,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30381,10 +30289,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30411,10 +30317,8 @@
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30441,10 +30345,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30467,10 +30369,8 @@
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30505,10 +30405,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30539,10 +30437,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30577,10 +30473,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -30615,10 +30509,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -30653,10 +30545,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30687,10 +30577,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30721,10 +30609,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30755,10 +30641,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30793,10 +30677,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30823,10 +30705,8 @@
       </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30849,10 +30729,8 @@
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H944" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -30887,10 +30765,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30917,10 +30793,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30951,10 +30825,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="948">
@@ -30985,10 +30857,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31011,10 +30881,8 @@
       <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -31045,10 +30913,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31079,10 +30945,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31109,10 +30973,8 @@
       </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31143,10 +31005,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31169,10 +31029,8 @@
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31207,10 +31065,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31241,10 +31097,8 @@
         </is>
       </c>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31275,10 +31129,8 @@
         </is>
       </c>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31301,10 +31153,8 @@
       </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -31327,10 +31177,8 @@
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31379,10 +31227,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31417,10 +31263,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -31451,10 +31295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31489,10 +31331,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H964" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -31527,10 +31367,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31561,10 +31399,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31595,10 +31431,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31629,10 +31463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31663,10 +31495,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31701,10 +31531,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31735,10 +31563,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31773,10 +31599,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31807,10 +31631,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31841,10 +31663,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31879,10 +31699,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31913,10 +31731,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31947,10 +31763,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H977" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -31981,10 +31795,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32015,10 +31827,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32053,10 +31863,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32091,10 +31899,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -32129,10 +31935,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32167,10 +31971,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32193,10 +31995,8 @@
       <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32231,10 +32031,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32269,10 +32067,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32307,10 +32103,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32345,10 +32139,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32383,10 +32175,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32409,10 +32199,8 @@
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr"/>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32447,10 +32235,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H991" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -32485,10 +32271,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -32523,10 +32307,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32553,10 +32335,8 @@
       </c>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32583,10 +32363,8 @@
       </c>
       <c r="F995" t="inlineStr"/>
       <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32617,10 +32395,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32651,10 +32427,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32681,10 +32455,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -32711,10 +32483,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32741,10 +32511,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32771,10 +32539,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32801,10 +32567,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32839,10 +32603,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32869,10 +32631,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32907,10 +32667,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32945,10 +32703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -32983,10 +32739,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33021,10 +32775,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -33059,10 +32811,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33093,10 +32843,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33127,10 +32875,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33165,10 +32911,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33191,10 +32935,8 @@
       <c r="E1013" t="inlineStr"/>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33217,10 +32959,8 @@
       <c r="E1014" t="inlineStr"/>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33247,10 +32987,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33277,10 +33015,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33307,10 +33043,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33337,10 +33071,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33367,10 +33099,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33397,10 +33127,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33427,10 +33155,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33457,10 +33183,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33487,10 +33211,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33525,10 +33247,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33563,10 +33283,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -33589,10 +33307,8 @@
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33619,10 +33335,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33653,10 +33367,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33683,10 +33395,8 @@
       </c>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33709,10 +33419,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1031">
@@ -33735,10 +33443,8 @@
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
       <c r="G1031" t="inlineStr"/>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -33761,10 +33467,8 @@
       <c r="E1032" t="inlineStr"/>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33795,10 +33499,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33829,10 +33531,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33867,10 +33567,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33905,10 +33603,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33943,10 +33639,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -33981,10 +33675,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -34011,10 +33703,8 @@
       </c>
       <c r="F1039" t="inlineStr"/>
       <c r="G1039" t="inlineStr"/>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34041,10 +33731,8 @@
       </c>
       <c r="F1040" t="inlineStr"/>
       <c r="G1040" t="inlineStr"/>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -34079,10 +33767,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34117,10 +33803,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34147,10 +33831,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34177,10 +33859,8 @@
       </c>
       <c r="F1044" t="inlineStr"/>
       <c r="G1044" t="inlineStr"/>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34207,10 +33887,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34237,10 +33915,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34267,10 +33943,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34293,10 +33967,8 @@
       </c>
       <c r="F1048" t="inlineStr"/>
       <c r="G1048" t="inlineStr"/>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34315,10 +33987,8 @@
       <c r="E1049" t="inlineStr"/>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34345,10 +34015,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34375,10 +34043,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34405,10 +34071,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34449,10 +34113,8 @@
       </c>
       <c r="F1054" t="inlineStr"/>
       <c r="G1054" t="inlineStr"/>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34487,10 +34149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -34525,10 +34185,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -34563,10 +34221,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34601,10 +34257,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34639,10 +34293,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -34673,10 +34325,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -34711,10 +34361,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34749,10 +34397,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34783,10 +34429,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34821,10 +34465,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34859,10 +34501,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34893,10 +34533,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -34927,10 +34565,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -34965,10 +34601,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -35003,10 +34637,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35041,10 +34673,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35079,10 +34709,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -35117,10 +34745,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -35155,10 +34781,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35193,10 +34817,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35219,10 +34841,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35249,10 +34869,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35275,10 +34893,8 @@
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
       <c r="G1077" t="inlineStr"/>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35305,10 +34921,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35343,10 +34957,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -35373,10 +34985,8 @@
       </c>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35407,10 +35017,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35433,10 +35041,8 @@
       <c r="E1082" t="inlineStr"/>
       <c r="F1082" t="inlineStr"/>
       <c r="G1082" t="inlineStr"/>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35467,10 +35073,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35505,10 +35109,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35543,10 +35145,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
@@ -35577,10 +35177,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35615,10 +35213,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35653,10 +35249,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35691,10 +35285,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35729,10 +35321,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35763,10 +35353,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35797,10 +35385,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35831,10 +35417,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35865,10 +35449,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35895,10 +35477,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35925,10 +35505,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35955,10 +35533,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35985,10 +35561,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36015,10 +35589,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36049,10 +35621,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36083,10 +35653,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36121,10 +35689,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -36159,10 +35725,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1104">
@@ -36197,10 +35761,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36227,10 +35789,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36257,10 +35817,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36287,10 +35845,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36317,10 +35873,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36347,10 +35901,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36373,10 +35925,8 @@
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -36403,10 +35953,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36433,10 +35981,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36463,10 +36009,8 @@
       </c>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36497,10 +36041,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36535,10 +36077,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36565,10 +36105,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36599,10 +36137,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -36633,10 +36169,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36671,10 +36205,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36709,10 +36241,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -36747,10 +36277,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -36785,10 +36313,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -36823,10 +36349,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -36857,10 +36381,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -36895,10 +36417,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -36925,94 +36445,108 @@
       </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37024,29 +36558,33 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1130" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37058,29 +36596,29 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
@@ -37092,29 +36630,29 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37126,27 +36664,31 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -37156,145 +36698,117 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
           <t>3</t>
@@ -37304,35 +36818,27 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37340,23 +36846,23 @@
       </c>
     </row>
     <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1139" t="inlineStr"/>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
@@ -37368,173 +36874,165 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
       <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
@@ -37548,27 +37046,35 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1146" t="inlineStr">
         <is>
           <t>3</t>
@@ -37578,177 +37084,129 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1148" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1149" t="inlineStr"/>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1150" t="inlineStr"/>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37760,33 +37218,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37798,29 +37252,29 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr">
@@ -37832,17 +37286,17 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
@@ -37852,11 +37306,7 @@
         </is>
       </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37866,31 +37316,23 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -37900,25 +37342,21 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1156" t="inlineStr"/>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
@@ -37930,23 +37368,23 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
@@ -37960,55 +37398,55 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38020,25 +37458,21 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -38048,23 +37482,23 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
       <c r="H1161" t="inlineStr">
@@ -38076,169 +37510,189 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38248,7 +37702,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -38258,25 +37712,17 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38284,33 +37730,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
           <t>3</t>
@@ -38318,25 +37756,21 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -38351,18 +37785,22 @@
       <c r="A1171" t="inlineStr"/>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38370,81 +37808,81 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr"/>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38454,59 +37892,35 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1175" t="inlineStr"/>
+      <c r="H1175" t="inlineStr"/>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
@@ -38518,17 +37932,17 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
@@ -38544,139 +37958,159 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38686,23 +38120,31 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
           <t>3</t>
@@ -38712,57 +38154,61 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38772,31 +38218,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38806,31 +38248,27 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
           <t>3</t>
@@ -38840,87 +38278,83 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
@@ -38932,23 +38366,23 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
@@ -38958,21 +38392,25 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38984,25 +38422,29 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
         <is>
           <t>3</t>
@@ -39010,121 +38452,169 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39134,23 +38624,27 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -39160,798 +38654,102 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
-        </is>
-      </c>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
-      <c r="H1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
-      <c r="H1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
-      <c r="H1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
-      <c r="H1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1203"/>
+  <dimension ref="A1:H1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36477,10 +36477,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -36511,10 +36509,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1129">
@@ -36549,10 +36545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -36587,10 +36581,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1131">
@@ -36621,10 +36613,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -36655,10 +36645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -36689,10 +36677,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -36719,10 +36705,8 @@
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -36749,10 +36733,8 @@
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -36779,10 +36761,8 @@
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -36809,10 +36789,8 @@
       </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -36839,10 +36817,8 @@
       </c>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -36865,10 +36841,8 @@
       </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -36913,10 +36887,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -36947,10 +36919,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1143">
@@ -36977,10 +36947,8 @@
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -37007,10 +36975,8 @@
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -37037,10 +37003,8 @@
       </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -37075,10 +37039,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1147">
@@ -37109,10 +37071,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
@@ -37139,10 +37099,8 @@
       </c>
       <c r="F1148" t="inlineStr"/>
       <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
@@ -37161,88 +37119,86 @@
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
+      <c r="H1149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr"/>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-    </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1151" t="inlineStr"/>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
           <t>3</t>
@@ -37252,59 +37208,35 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
@@ -37316,17 +37248,17 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
@@ -37342,139 +37274,159 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -37484,23 +37436,31 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -37510,57 +37470,61 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
           <t>3</t>
@@ -37570,31 +37534,27 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
           <t>3</t>
@@ -37604,31 +37564,27 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
           <t>3</t>
@@ -37638,87 +37594,83 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
@@ -37730,23 +37682,23 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
       <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
@@ -37756,21 +37708,25 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -37782,25 +37738,29 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -37808,121 +37768,169 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr"/>
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -37932,23 +37940,27 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -37958,800 +37970,138 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
       <c r="G1182" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-      <c r="H1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
-      <c r="H1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
-      <c r="H1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1189" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1195" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1196" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1200" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1230"/>
+  <dimension ref="A1:H1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28699,10 +28699,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -28733,10 +28731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -28771,10 +28767,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -28809,10 +28803,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -28847,10 +28839,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -28873,10 +28863,8 @@
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -28925,10 +28913,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28959,10 +28945,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28993,10 +28977,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29005,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29053,10 +29033,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29083,10 +29061,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29121,10 +29097,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29189,10 +29161,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29223,10 +29193,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29253,10 +29221,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29283,10 +29249,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29313,10 +29277,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29309,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29337,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29365,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29445,10 +29401,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29475,10 +29429,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -29505,10 +29457,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -29543,10 +29493,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -29581,10 +29529,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29615,10 +29561,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29649,10 +29593,8 @@
         </is>
       </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29679,10 +29621,8 @@
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29705,10 +29645,8 @@
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29735,10 +29673,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29765,10 +29701,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29795,10 +29729,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29829,10 +29761,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29859,10 +29789,8 @@
         </is>
       </c>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29893,10 +29821,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29927,10 +29853,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29953,10 +29877,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29975,10 +29897,8 @@
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30027,10 +29947,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30061,10 +29979,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30091,10 +30007,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30121,10 +30035,8 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30155,10 +30067,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30189,10 +30099,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30227,10 +30135,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30261,10 +30167,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30287,10 +30191,8 @@
       <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30321,10 +30223,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30347,10 +30247,8 @@
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30385,10 +30283,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -30419,10 +30315,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30449,10 +30343,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30479,10 +30371,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30509,10 +30399,8 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30539,10 +30427,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30565,10 +30451,8 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30603,10 +30487,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30637,10 +30519,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30675,10 +30555,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H939" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -30713,10 +30591,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -30751,10 +30627,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30785,10 +30659,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30819,10 +30691,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30853,10 +30723,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30891,10 +30759,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30921,10 +30787,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30947,10 +30811,8 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -30985,10 +30847,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31015,10 +30875,8 @@
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31049,10 +30907,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31083,10 +30939,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31109,10 +30963,8 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31143,10 +30995,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31177,10 +31027,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31207,10 +31055,8 @@
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31241,10 +31087,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31267,10 +31111,8 @@
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31305,10 +31147,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -31339,10 +31179,8 @@
         </is>
       </c>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31373,10 +31211,8 @@
         </is>
       </c>
       <c r="G960" t="inlineStr"/>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="961">
@@ -31399,10 +31235,8 @@
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31425,10 +31259,8 @@
       </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="963">
@@ -31477,10 +31309,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="965">
@@ -31515,10 +31345,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31549,10 +31377,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31587,10 +31413,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H967" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -31625,10 +31449,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -31659,10 +31481,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="970">
@@ -31693,10 +31513,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31727,10 +31545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31761,10 +31577,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31799,10 +31613,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31833,10 +31645,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31871,10 +31681,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31905,10 +31713,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31939,10 +31745,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -31977,10 +31781,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32011,10 +31813,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32045,10 +31845,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32079,10 +31877,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32113,10 +31909,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32151,10 +31945,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -32189,10 +31981,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H984" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -32227,10 +32017,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32265,10 +32053,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32291,10 +32077,8 @@
       <c r="E987" t="inlineStr"/>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32329,10 +32113,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32367,10 +32149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32405,10 +32185,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -32443,10 +32221,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32481,10 +32257,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32507,10 +32281,8 @@
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -32545,10 +32317,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H994" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -32583,10 +32353,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -32621,10 +32389,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32651,10 +32417,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32681,10 +32445,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32715,10 +32477,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32749,10 +32509,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32779,10 +32537,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -32809,10 +32565,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32839,10 +32593,8 @@
       </c>
       <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32869,10 +32621,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32899,10 +32649,8 @@
       </c>
       <c r="F1005" t="inlineStr"/>
       <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32937,10 +32685,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -32967,10 +32713,8 @@
       </c>
       <c r="F1007" t="inlineStr"/>
       <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
@@ -33005,10 +32749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1009">
@@ -33043,10 +32785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33081,10 +32821,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -33119,10 +32857,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -33157,10 +32893,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -33191,10 +32925,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33225,10 +32957,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33263,10 +32993,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33289,10 +33017,8 @@
       <c r="E1016" t="inlineStr"/>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33315,10 +33041,8 @@
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -33345,10 +33069,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -33375,10 +33097,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -33405,10 +33125,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33435,10 +33153,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33465,10 +33181,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33495,10 +33209,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33525,10 +33237,8 @@
       </c>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -33555,10 +33265,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33585,10 +33293,8 @@
       </c>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -33623,10 +33329,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -33661,10 +33365,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33687,10 +33389,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -33717,10 +33417,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33751,10 +33449,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33781,10 +33477,8 @@
       </c>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33807,10 +33501,8 @@
       <c r="E1033" t="inlineStr"/>
       <c r="F1033" t="inlineStr"/>
       <c r="G1033" t="inlineStr"/>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33833,10 +33525,8 @@
       <c r="E1034" t="inlineStr"/>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33859,10 +33549,8 @@
       <c r="E1035" t="inlineStr"/>
       <c r="F1035" t="inlineStr"/>
       <c r="G1035" t="inlineStr"/>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33893,10 +33581,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33927,10 +33613,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -33965,10 +33649,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34003,10 +33685,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34041,10 +33721,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -34079,10 +33757,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -34109,10 +33785,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34139,10 +33813,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34177,10 +33849,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34215,10 +33885,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -34245,10 +33913,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34275,10 +33941,8 @@
       </c>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34305,10 +33969,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34335,10 +33997,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34365,10 +34025,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34391,10 +34049,8 @@
       </c>
       <c r="F1051" t="inlineStr"/>
       <c r="G1051" t="inlineStr"/>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34413,10 +34069,8 @@
       <c r="E1052" t="inlineStr"/>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34443,10 +34097,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -34473,10 +34125,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34503,10 +34153,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34547,10 +34195,8 @@
       </c>
       <c r="F1057" t="inlineStr"/>
       <c r="G1057" t="inlineStr"/>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34585,10 +34231,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1059">
@@ -34623,10 +34267,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34661,10 +34303,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -34699,10 +34339,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -34737,10 +34375,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -34771,10 +34407,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -34809,10 +34443,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34847,10 +34479,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34881,10 +34511,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -34919,10 +34547,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -34957,10 +34583,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -34991,10 +34615,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35025,10 +34647,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -35063,10 +34683,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35101,10 +34719,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35139,10 +34755,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1074">
@@ -35177,10 +34791,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -35215,10 +34827,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -35253,10 +34863,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35291,10 +34899,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35317,10 +34923,8 @@
       <c r="E1078" t="inlineStr"/>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35347,10 +34951,8 @@
       </c>
       <c r="F1079" t="inlineStr"/>
       <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35373,10 +34975,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35403,10 +35003,8 @@
       </c>
       <c r="F1081" t="inlineStr"/>
       <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35441,10 +35039,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35471,10 +35067,8 @@
       </c>
       <c r="F1083" t="inlineStr"/>
       <c r="G1083" t="inlineStr"/>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35505,10 +35099,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -35531,10 +35123,8 @@
       <c r="E1085" t="inlineStr"/>
       <c r="F1085" t="inlineStr"/>
       <c r="G1085" t="inlineStr"/>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35565,10 +35155,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -35603,10 +35191,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35641,10 +35227,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -35675,10 +35259,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35713,10 +35295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35751,10 +35331,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -35789,10 +35367,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -35827,10 +35403,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -35861,10 +35435,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35895,10 +35467,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35929,10 +35499,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35963,10 +35531,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35993,10 +35559,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36023,10 +35587,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36053,10 +35615,8 @@
       </c>
       <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr"/>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36083,10 +35643,8 @@
       </c>
       <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr"/>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36113,10 +35671,8 @@
       </c>
       <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr"/>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36147,10 +35703,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36181,10 +35735,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36219,10 +35771,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -36257,10 +35807,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -36295,10 +35843,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36325,10 +35871,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36355,10 +35899,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36385,10 +35927,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36415,10 +35955,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36445,10 +35983,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36471,10 +36007,8 @@
       <c r="E1113" t="inlineStr"/>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -36501,10 +36035,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36531,10 +36063,8 @@
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36561,10 +36091,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36595,10 +36123,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -36633,10 +36159,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36663,10 +36187,8 @@
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -36697,10 +36219,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36731,10 +36251,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -36769,10 +36287,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -36807,10 +36323,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -36845,10 +36359,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -36883,10 +36395,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -36921,10 +36431,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1127">
@@ -36955,10 +36463,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -36993,10 +36499,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -37023,94 +36527,108 @@
       </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37122,29 +36640,33 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1133" t="inlineStr">
@@ -37156,29 +36678,29 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1134" t="inlineStr">
@@ -37190,29 +36712,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1135" t="inlineStr">
@@ -37224,31 +36746,31 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37258,145 +36780,117 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1139" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
           <t>3</t>
@@ -37406,35 +36900,27 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
           <t>3</t>
@@ -37442,23 +36928,23 @@
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1142" t="inlineStr"/>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
@@ -37470,173 +36956,165 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
       <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr"/>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1148" t="inlineStr"/>
@@ -37650,27 +37128,35 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1149" t="inlineStr">
         <is>
           <t>3</t>
@@ -37680,177 +37166,129 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr">
@@ -37862,33 +37300,29 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr">
@@ -37900,29 +37334,29 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1156" t="inlineStr">
@@ -37934,17 +37368,17 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
@@ -37954,11 +37388,7 @@
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
           <t>3</t>
@@ -37968,31 +37398,23 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -38002,25 +37424,21 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38032,23 +37450,23 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38062,55 +37480,55 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
@@ -38122,25 +37540,21 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
@@ -38150,23 +37564,23 @@
       </c>
     </row>
     <row r="1164">
-      <c r="A1164" t="inlineStr"/>
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
@@ -38178,169 +37592,189 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
       <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38350,7 +37784,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -38360,25 +37794,17 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38386,33 +37812,25 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -38420,25 +37838,21 @@
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
@@ -38453,18 +37867,22 @@
       <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38472,81 +37890,81 @@
       </c>
     </row>
     <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+      <c r="A1175" t="inlineStr"/>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1176" t="inlineStr"/>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1177" t="inlineStr"/>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -38556,59 +37974,35 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
@@ -38620,17 +38014,17 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
@@ -38646,139 +38040,159 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
       <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38788,23 +38202,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38814,57 +38236,61 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
           <t>3</t>
@@ -38874,31 +38300,27 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -38908,31 +38330,27 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
         <is>
           <t>3</t>
@@ -38942,87 +38360,83 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
@@ -39034,23 +38448,23 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
@@ -39060,21 +38474,25 @@
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
@@ -39086,25 +38504,29 @@
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>3</t>
@@ -39112,121 +38534,169 @@
       </c>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr"/>
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr"/>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr"/>
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -39236,23 +38706,27 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -39262,858 +38736,162 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1228" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1229" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1229" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
-      <c r="H1230" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1227"/>
+  <dimension ref="A1:H1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28895,10 +28895,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28925,10 +28923,8 @@
       </c>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28955,10 +28951,8 @@
       </c>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -28985,10 +28979,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29023,10 +29015,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="888">
@@ -29057,10 +29047,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29091,10 +29079,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29125,10 +29111,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29155,10 +29139,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29185,10 +29167,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29215,10 +29195,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29249,10 +29227,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29279,10 +29255,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29309,10 +29283,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29347,10 +29319,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -29377,10 +29347,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -29407,10 +29375,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29445,10 +29411,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29483,10 +29447,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -29517,10 +29479,8 @@
         </is>
       </c>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29551,10 +29511,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29581,10 +29539,8 @@
       </c>
       <c r="F904" t="inlineStr"/>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29607,10 +29563,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29637,10 +29591,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29667,10 +29619,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29697,10 +29647,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29731,10 +29679,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29761,10 +29707,8 @@
         </is>
       </c>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29795,10 +29739,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29829,10 +29771,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29855,10 +29795,8 @@
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29877,10 +29815,8 @@
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29929,10 +29865,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29963,10 +29897,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -29993,10 +29925,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30023,10 +29953,8 @@
       </c>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30057,10 +29985,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30091,10 +30017,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30129,10 +30053,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30163,10 +30085,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30189,10 +30109,8 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30223,10 +30141,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30249,10 +30165,8 @@
       <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30287,10 +30201,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -30321,10 +30233,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30351,10 +30261,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30381,10 +30289,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30411,10 +30317,8 @@
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30441,10 +30345,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30467,10 +30369,8 @@
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30505,10 +30405,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30539,10 +30437,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30577,10 +30473,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -30615,10 +30509,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -30653,10 +30545,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30687,10 +30577,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30721,10 +30609,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30755,10 +30641,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30793,10 +30677,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30823,10 +30705,8 @@
       </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30849,10 +30729,8 @@
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H944" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -30887,10 +30765,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30917,10 +30793,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30951,10 +30825,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="948">
@@ -30985,10 +30857,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31011,10 +30881,8 @@
       <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -31045,10 +30913,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31079,10 +30945,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31109,10 +30973,8 @@
       </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31143,10 +31005,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31169,10 +31029,8 @@
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31207,10 +31065,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31241,10 +31097,8 @@
         </is>
       </c>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31275,10 +31129,8 @@
         </is>
       </c>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31301,10 +31153,8 @@
       </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -31327,10 +31177,8 @@
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31379,10 +31227,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31417,10 +31263,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -31451,10 +31295,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31489,10 +31331,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H964" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -31527,10 +31367,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31561,10 +31399,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31595,10 +31431,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31629,10 +31463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31663,10 +31495,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31701,10 +31531,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31735,10 +31563,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31773,10 +31599,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31807,10 +31631,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31841,10 +31663,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31879,10 +31699,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31913,10 +31731,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31947,10 +31763,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H977" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -31981,10 +31795,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32015,10 +31827,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32053,10 +31863,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32091,10 +31899,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -32129,10 +31935,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32167,10 +31971,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32193,10 +31995,8 @@
       <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32231,10 +32031,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32269,10 +32067,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32307,10 +32103,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32345,10 +32139,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32383,10 +32175,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32409,10 +32199,8 @@
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr"/>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32447,10 +32235,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H991" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -32485,10 +32271,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -32523,10 +32307,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32553,10 +32335,8 @@
       </c>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32583,10 +32363,8 @@
       </c>
       <c r="F995" t="inlineStr"/>
       <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32617,10 +32395,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32651,10 +32427,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32681,10 +32455,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -32711,10 +32483,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32741,10 +32511,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32771,10 +32539,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32801,10 +32567,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32839,10 +32603,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32869,10 +32631,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32907,10 +32667,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32945,10 +32703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -32983,10 +32739,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33021,10 +32775,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -33059,10 +32811,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33093,10 +32843,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33127,10 +32875,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33165,10 +32911,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33191,10 +32935,8 @@
       <c r="E1013" t="inlineStr"/>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33217,10 +32959,8 @@
       <c r="E1014" t="inlineStr"/>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33247,10 +32987,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33277,10 +33015,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33307,10 +33043,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33337,10 +33071,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33367,10 +33099,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33397,10 +33127,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33427,10 +33155,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33457,10 +33183,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33487,10 +33211,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33525,10 +33247,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33563,10 +33283,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -33589,10 +33307,8 @@
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33619,10 +33335,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33653,10 +33367,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33683,10 +33395,8 @@
       </c>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33709,10 +33419,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1031">
@@ -33735,10 +33443,8 @@
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
       <c r="G1031" t="inlineStr"/>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -33761,10 +33467,8 @@
       <c r="E1032" t="inlineStr"/>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33795,10 +33499,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33829,10 +33531,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33867,10 +33567,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33905,10 +33603,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33943,10 +33639,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -33981,10 +33675,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -34011,10 +33703,8 @@
       </c>
       <c r="F1039" t="inlineStr"/>
       <c r="G1039" t="inlineStr"/>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34041,10 +33731,8 @@
       </c>
       <c r="F1040" t="inlineStr"/>
       <c r="G1040" t="inlineStr"/>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -34079,10 +33767,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34117,10 +33803,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34147,10 +33831,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34177,10 +33859,8 @@
       </c>
       <c r="F1044" t="inlineStr"/>
       <c r="G1044" t="inlineStr"/>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34207,10 +33887,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34237,10 +33915,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34267,10 +33943,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34293,10 +33967,8 @@
       </c>
       <c r="F1048" t="inlineStr"/>
       <c r="G1048" t="inlineStr"/>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34315,10 +33987,8 @@
       <c r="E1049" t="inlineStr"/>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34345,10 +34015,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34375,10 +34043,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34405,10 +34071,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34449,10 +34113,8 @@
       </c>
       <c r="F1054" t="inlineStr"/>
       <c r="G1054" t="inlineStr"/>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34487,10 +34149,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -34525,10 +34185,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -34563,10 +34221,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34601,10 +34257,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34639,10 +34293,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -34673,10 +34325,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -34711,10 +34361,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34749,10 +34397,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34783,10 +34429,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34821,10 +34465,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34859,10 +34501,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34893,10 +34533,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -34927,10 +34565,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -34965,10 +34601,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -35003,10 +34637,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35041,10 +34673,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35079,10 +34709,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -35117,10 +34745,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -35155,10 +34781,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35193,10 +34817,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35219,10 +34841,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35249,10 +34869,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35275,10 +34893,8 @@
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
       <c r="G1077" t="inlineStr"/>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35305,10 +34921,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35343,10 +34957,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -35373,10 +34985,8 @@
       </c>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35407,10 +35017,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35433,10 +35041,8 @@
       <c r="E1082" t="inlineStr"/>
       <c r="F1082" t="inlineStr"/>
       <c r="G1082" t="inlineStr"/>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35467,10 +35073,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35505,10 +35109,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35543,10 +35145,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
@@ -35577,10 +35177,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35615,10 +35213,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35653,10 +35249,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35691,10 +35285,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35729,10 +35321,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35763,10 +35353,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35797,10 +35385,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35831,10 +35417,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35865,10 +35449,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35895,10 +35477,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35925,10 +35505,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35955,10 +35533,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -35985,10 +35561,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36015,10 +35589,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36049,10 +35621,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36083,10 +35653,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36121,10 +35689,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -36159,10 +35725,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1104">
@@ -36197,10 +35761,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36227,10 +35789,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36257,10 +35817,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36287,10 +35845,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36317,10 +35873,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36347,10 +35901,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36373,10 +35925,8 @@
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -36403,10 +35953,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36433,10 +35981,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36463,10 +36009,8 @@
       </c>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36497,10 +36041,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36535,10 +36077,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36565,10 +36105,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36599,10 +36137,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -36633,10 +36169,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36671,10 +36205,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36709,10 +36241,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -36747,10 +36277,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -36785,10 +36313,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -36823,10 +36349,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -36857,10 +36381,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -36895,10 +36417,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -36925,94 +36445,108 @@
       </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37024,29 +36558,33 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1130" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37058,29 +36596,29 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
@@ -37092,29 +36630,29 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37126,31 +36664,31 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -37160,145 +36698,117 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
           <t>3</t>
@@ -37308,35 +36818,27 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37344,23 +36846,23 @@
       </c>
     </row>
     <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1139" t="inlineStr"/>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
@@ -37372,173 +36874,165 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
       <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
@@ -37552,27 +37046,35 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1146" t="inlineStr">
         <is>
           <t>3</t>
@@ -37582,177 +37084,129 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1148" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1149" t="inlineStr"/>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1150" t="inlineStr"/>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37764,33 +37218,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37802,29 +37252,29 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr">
@@ -37836,17 +37286,17 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
@@ -37856,11 +37306,7 @@
         </is>
       </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37870,31 +37316,23 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -37904,25 +37342,21 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1156" t="inlineStr"/>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
@@ -37934,23 +37368,23 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
@@ -37964,55 +37398,55 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38024,25 +37458,21 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -38052,23 +37482,23 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
       <c r="H1161" t="inlineStr">
@@ -38080,169 +37510,189 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38252,7 +37702,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -38262,25 +37712,17 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38288,33 +37730,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
           <t>3</t>
@@ -38322,25 +37756,21 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -38355,18 +37785,22 @@
       <c r="A1171" t="inlineStr"/>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38374,81 +37808,81 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr"/>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38458,59 +37892,35 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1175" t="inlineStr"/>
+      <c r="H1175" t="inlineStr"/>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
@@ -38522,17 +37932,17 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
@@ -38548,139 +37958,159 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38690,23 +38120,31 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
           <t>3</t>
@@ -38716,57 +38154,61 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38776,31 +38218,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38810,31 +38248,27 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
           <t>3</t>
@@ -38844,87 +38278,83 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
@@ -38936,23 +38366,23 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
@@ -38962,21 +38392,25 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38988,25 +38422,29 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
         <is>
           <t>3</t>
@@ -39014,121 +38452,169 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39138,23 +38624,27 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -39164,858 +38654,162 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1204" t="inlineStr"/>
       <c r="G1204" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
-      <c r="H1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
-      <c r="H1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
-      <c r="H1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
-      <c r="H1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1226" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1205"/>
+  <dimension ref="A1:H1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36477,10 +36477,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -36511,10 +36509,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1129">
@@ -36549,10 +36545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -36587,10 +36581,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1131">
@@ -36621,10 +36613,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -36655,10 +36645,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -36689,10 +36677,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -36719,10 +36705,8 @@
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -36749,10 +36733,8 @@
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -36779,10 +36761,8 @@
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -36809,10 +36789,8 @@
       </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -36839,10 +36817,8 @@
       </c>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -36865,10 +36841,8 @@
       </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -36913,10 +36887,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -36947,10 +36919,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1143">
@@ -36977,10 +36947,8 @@
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -37007,10 +36975,8 @@
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -37037,10 +37003,8 @@
       </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -37075,10 +37039,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1147">
@@ -37109,10 +37071,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
@@ -37139,10 +37099,8 @@
       </c>
       <c r="F1148" t="inlineStr"/>
       <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
@@ -37161,88 +37119,86 @@
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
+      <c r="H1149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr"/>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-    </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1151" t="inlineStr"/>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
           <t>3</t>
@@ -37252,59 +37208,35 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
@@ -37316,17 +37248,17 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
@@ -37342,139 +37274,159 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -37484,23 +37436,31 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -37510,57 +37470,61 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
           <t>3</t>
@@ -37570,31 +37534,27 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
           <t>3</t>
@@ -37604,31 +37564,27 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
           <t>3</t>
@@ -37638,87 +37594,83 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
@@ -37730,23 +37682,23 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
       <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
@@ -37756,21 +37708,25 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -37782,25 +37738,29 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -37808,121 +37768,169 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr"/>
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -37932,23 +37940,27 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -37958,858 +37970,162 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
       <c r="G1182" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr">
-        <is>
-          <t>Gold Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr">
-        <is>
-          <t>-3.4%</t>
-        </is>
-      </c>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-      <c r="H1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr">
-        <is>
-          <t>Mining Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
-      <c r="H1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr">
-        <is>
-          <t>Mining Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
-      <c r="H1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1189" t="inlineStr">
-        <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr">
-        <is>
-          <t>ZEW Current ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr">
-        <is>
-          <t>Bund/g Auction</t>
-        </is>
-      </c>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H1195" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1196" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr">
-        <is>
-          <t>CPI Median YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr">
-        <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1200" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr">
         <is>
           <t>2</t>
         </is>
